--- a/uploads/attachments/2020/FebFinancials.xlsx
+++ b/uploads/attachments/2020/FebFinancials.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bhutan Code Challenge-2019\BHUTAN STARTUP HACKATHON CHALLENGE\Hackathon_2020\Data\Revenue\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="675" windowWidth="20055" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -254,15 +249,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00\ ;&quot; (&quot;#,##0.00\);&quot; -&quot;#\ ;@\ "/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="#,##0.00\ ;&quot; (&quot;#,##0.00\);&quot; -&quot;#\ ;@\ "/>
   </numFmts>
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -511,7 +506,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -700,18 +695,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -950,9 +933,9 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="23" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="23" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="23" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
@@ -972,13 +955,22 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="165" fontId="29" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="3"/>
@@ -991,6 +983,7 @@
     <xf numFmtId="0" fontId="20" fillId="34" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="43" fontId="26" fillId="34" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -1005,11 +998,23 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="34" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="35" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="35" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1025,7 +1030,7 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="32" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="32" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1034,30 +1039,30 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="29" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="27" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="34" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="31" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="34" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="29" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="31" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="33" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="27" fillId="33" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1065,36 +1070,8 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="34" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="34" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="74">
@@ -1175,14 +1152,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1229,7 +1198,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1261,10 +1230,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1296,7 +1264,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1472,1011 +1439,1011 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="D91" sqref="A5:D91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="44.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:4" ht="15.75">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="47"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="22"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75">
+      <c r="A2" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="50"/>
-    </row>
-    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="38"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="44" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="20"/>
+    </row>
+    <row r="3" spans="1:4" ht="16.5">
+      <c r="A3" s="46"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="52" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="31"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="33"/>
-    </row>
-    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+    <row r="4" spans="1:4" ht="16.5">
+      <c r="A4" s="39"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="41"/>
+    </row>
+    <row r="5" spans="1:4" ht="31.5">
+      <c r="A5" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="40" t="s">
+      <c r="B5" s="47"/>
+      <c r="C5" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="50" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="52"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="16"/>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+    <row r="6" spans="1:4" ht="15.75">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="24"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.75">
+      <c r="A7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="16"/>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="12" t="s">
+      <c r="C7" s="38"/>
+      <c r="D7" s="24"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.75">
+      <c r="A8" s="7"/>
+      <c r="B8" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="18" t="s">
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.75">
+      <c r="A9" s="10"/>
+      <c r="B9" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="8">
         <v>1000000</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="8">
         <v>2100000</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="18" t="s">
+    <row r="10" spans="1:4" ht="15.75">
+      <c r="A10" s="10"/>
+      <c r="B10" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="8">
         <v>50000</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="8">
         <v>90000</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
+    <row r="11" spans="1:4">
+      <c r="A11" s="7"/>
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="35">
         <f>SUM(C9:C10)</f>
         <v>1050000</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="35">
         <f>SUM(D9:D10)</f>
         <v>2190000</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="18" t="s">
+    <row r="12" spans="1:4" ht="15.75">
+      <c r="A12" s="10"/>
+      <c r="B12" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="8">
         <v>50000000</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="8">
         <v>110000000</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="18" t="s">
+    <row r="13" spans="1:4" ht="15.75">
+      <c r="A13" s="10"/>
+      <c r="B13" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="8">
         <v>2200000</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="8">
         <v>4000000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="18" t="s">
+    <row r="14" spans="1:4" ht="15.75">
+      <c r="A14" s="10"/>
+      <c r="B14" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="8">
         <v>30000000</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="8">
         <v>67000000</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="18" t="s">
+    <row r="15" spans="1:4" ht="15.75">
+      <c r="A15" s="10"/>
+      <c r="B15" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="8">
         <v>200000</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="8">
         <v>400000</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="53" t="s">
+    <row r="16" spans="1:4" ht="15.75">
+      <c r="A16" s="10"/>
+      <c r="B16" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="8">
         <v>6000000</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="8">
         <v>12500000</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="18" t="s">
+    <row r="17" spans="1:4" ht="15.75">
+      <c r="A17" s="10"/>
+      <c r="B17" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="8">
         <v>200000</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="8">
         <v>300000</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="53" t="s">
+    <row r="18" spans="1:4" ht="15.75">
+      <c r="A18" s="10"/>
+      <c r="B18" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="8">
         <v>150000</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="8">
         <v>200000</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="18" t="s">
+    <row r="19" spans="1:4" ht="15.75">
+      <c r="A19" s="10"/>
+      <c r="B19" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="8">
         <v>2100000</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="8">
         <v>3100000</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="18" t="s">
+    <row r="20" spans="1:4" ht="15.75">
+      <c r="A20" s="10"/>
+      <c r="B20" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="8">
         <v>245000</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="8">
         <v>345000</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="18" t="s">
+    <row r="21" spans="1:4" ht="15.75">
+      <c r="A21" s="10"/>
+      <c r="B21" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="8">
         <v>1000000</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="8">
         <v>2300000</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="53" t="s">
+    <row r="22" spans="1:4" ht="15.75">
+      <c r="A22" s="10"/>
+      <c r="B22" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="8">
         <v>62544</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
-      <c r="B23" s="3" t="s">
+    <row r="23" spans="1:4">
+      <c r="A23" s="29"/>
+      <c r="B23" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="35">
+      <c r="C23" s="43">
         <f>SUM(C12:C22)</f>
         <v>92157544</v>
       </c>
-      <c r="D23" s="35">
+      <c r="D23" s="43">
         <f>SUM(D12:D22)</f>
         <v>200145000</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="54" t="s">
+    <row r="24" spans="1:4" ht="15.75">
+      <c r="A24" s="10"/>
+      <c r="B24" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="8">
         <v>300000</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="8">
         <v>800000</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="54" t="s">
+    <row r="25" spans="1:4" ht="15.75">
+      <c r="A25" s="10"/>
+      <c r="B25" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="8">
         <v>900000</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="8">
         <v>1900000</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="18" t="s">
+    <row r="26" spans="1:4" ht="15.75">
+      <c r="A26" s="10"/>
+      <c r="B26" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="8">
         <v>1200000</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="8">
         <v>2500000</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="18" t="s">
+    <row r="27" spans="1:4" ht="15.75">
+      <c r="A27" s="10"/>
+      <c r="B27" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="8">
         <v>125000</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="8">
         <v>310000</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="18" t="s">
+    <row r="28" spans="1:4" ht="15.75">
+      <c r="A28" s="10"/>
+      <c r="B28" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="8">
         <v>20000</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="8">
         <v>49000</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="18" t="s">
+    <row r="29" spans="1:4" ht="15.75">
+      <c r="A29" s="10"/>
+      <c r="B29" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="8">
         <v>25000</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="8">
         <v>54000</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-      <c r="B30" s="18" t="s">
+    <row r="30" spans="1:4" ht="15.75">
+      <c r="A30" s="10"/>
+      <c r="B30" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="8">
         <v>30000</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="8">
         <v>59000</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="18" t="s">
+    <row r="31" spans="1:4" ht="15.75">
+      <c r="A31" s="10"/>
+      <c r="B31" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="8">
         <v>35000</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="8">
         <v>64000</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="B32" s="18" t="s">
+    <row r="32" spans="1:4" ht="15.75">
+      <c r="A32" s="10"/>
+      <c r="B32" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="8">
         <v>40000</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="8">
         <v>69000</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="B33" s="54" t="s">
+    <row r="33" spans="1:5" ht="15.75">
+      <c r="A33" s="10"/>
+      <c r="B33" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="8">
         <v>460000</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="8">
         <v>900000</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="B34" s="54" t="s">
+    <row r="34" spans="1:5" ht="15.75">
+      <c r="A34" s="10"/>
+      <c r="B34" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="8">
         <v>10000</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="8">
         <v>23000</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="21"/>
-      <c r="B35" s="3" t="s">
+    <row r="35" spans="1:5">
+      <c r="A35" s="29"/>
+      <c r="B35" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="35">
+      <c r="C35" s="43">
         <f>SUM(C24:C34)</f>
         <v>3145000</v>
       </c>
-      <c r="D35" s="35">
+      <c r="D35" s="43">
         <f>SUM(D24:D34)</f>
         <v>6728000</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="18" t="s">
+    <row r="36" spans="1:5" ht="15.75">
+      <c r="A36" s="10"/>
+      <c r="B36" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="8">
         <v>200000</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="8">
         <v>435000</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="18" t="s">
+    <row r="37" spans="1:5" ht="15.75">
+      <c r="A37" s="10"/>
+      <c r="B37" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="8">
         <v>0</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-      <c r="B38" s="18" t="s">
+    <row r="38" spans="1:5" ht="15.75">
+      <c r="A38" s="10"/>
+      <c r="B38" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="8">
         <v>345000</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="8">
         <v>650000</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="B39" s="18" t="s">
+    <row r="39" spans="1:5" ht="15.75">
+      <c r="A39" s="10"/>
+      <c r="B39" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="8">
         <v>185000</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="8">
         <v>300000</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
-      <c r="B40" s="18" t="s">
+    <row r="40" spans="1:5" ht="15.75">
+      <c r="A40" s="10"/>
+      <c r="B40" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="8">
         <v>46000</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="21"/>
-      <c r="B41" s="3" t="s">
+    <row r="41" spans="1:5">
+      <c r="A41" s="29"/>
+      <c r="B41" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="35">
+      <c r="C41" s="43">
         <f>SUM(C36:C40)</f>
         <v>776000</v>
       </c>
-      <c r="D41" s="35">
+      <c r="D41" s="43">
         <f>SUM(D36:D40)</f>
         <v>1385000</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="21"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="36">
+    <row r="42" spans="1:5">
+      <c r="A42" s="29"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="44">
         <f>SUM(C41+C35+C23+C11)</f>
         <v>97128544</v>
       </c>
-      <c r="D42" s="36">
+      <c r="D42" s="44">
         <f>SUM(D41+D35+D23+D11)</f>
         <v>210448000</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="8">
+    <row r="43" spans="1:5" ht="15.75">
+      <c r="A43" s="10"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="12">
         <f>C42</f>
         <v>97128544</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="12">
         <f>D42</f>
         <v>210448000</v>
       </c>
-      <c r="E43" s="6"/>
-    </row>
-    <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="21"/>
-      <c r="B44" s="24" t="s">
+      <c r="E43" s="9"/>
+    </row>
+    <row r="44" spans="1:5" ht="15.75">
+      <c r="A44" s="29"/>
+      <c r="B44" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-    </row>
-    <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
-      <c r="B45" s="18" t="s">
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
+    </row>
+    <row r="45" spans="1:5" ht="15.75">
+      <c r="A45" s="10"/>
+      <c r="B45" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="8">
         <v>50000</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="8">
         <v>123000</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="7"/>
-      <c r="B46" s="18" t="s">
+    <row r="46" spans="1:5" ht="15.75">
+      <c r="A46" s="10"/>
+      <c r="B46" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="8">
         <v>56000</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="8">
         <v>125000</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="7"/>
-      <c r="B47" s="18" t="s">
+    <row r="47" spans="1:5" ht="15.75">
+      <c r="A47" s="10"/>
+      <c r="B47" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47" s="8">
         <v>62000</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="8">
         <v>127000</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
-      <c r="B48" s="18" t="s">
+    <row r="48" spans="1:5" ht="15.75">
+      <c r="A48" s="10"/>
+      <c r="B48" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48" s="8">
         <v>68000</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="8">
         <v>129000</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="7"/>
-      <c r="B49" s="18" t="s">
+    <row r="49" spans="1:4" ht="15.75">
+      <c r="A49" s="10"/>
+      <c r="B49" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49" s="8">
         <v>74000</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="8">
         <v>131000</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="7"/>
-      <c r="B50" s="18" t="s">
+    <row r="50" spans="1:4" ht="15.75">
+      <c r="A50" s="10"/>
+      <c r="B50" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C50" s="8">
         <v>80000</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D50" s="8">
         <v>133000</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="21"/>
-      <c r="B51" s="3" t="s">
+    <row r="51" spans="1:4">
+      <c r="A51" s="29"/>
+      <c r="B51" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C51" s="10">
+      <c r="C51" s="14">
         <f>SUM(C45:C50)</f>
         <v>390000</v>
       </c>
-      <c r="D51" s="10">
+      <c r="D51" s="14">
         <f>SUM(D45:D50)</f>
         <v>768000</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="7"/>
-      <c r="B52" s="18" t="s">
+    <row r="52" spans="1:4" ht="15.75">
+      <c r="A52" s="10"/>
+      <c r="B52" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C52" s="5">
+      <c r="C52" s="8">
         <v>15000</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D52" s="8">
         <v>30000</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="7"/>
-      <c r="B53" s="18" t="s">
+    <row r="53" spans="1:4" ht="15.75">
+      <c r="A53" s="10"/>
+      <c r="B53" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="C53" s="5">
+      <c r="C53" s="8">
         <v>12550</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D53" s="8">
         <v>26000</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="11"/>
-      <c r="B54" s="3" t="s">
+    <row r="54" spans="1:4" ht="16.5">
+      <c r="A54" s="15"/>
+      <c r="B54" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C54" s="35">
+      <c r="C54" s="43">
         <f>SUM(C52:C53)</f>
         <v>27550</v>
       </c>
-      <c r="D54" s="35">
+      <c r="D54" s="43">
         <f>SUM(D52:D53)</f>
         <v>56000</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="11"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="36">
+    <row r="55" spans="1:4" ht="16.5">
+      <c r="A55" s="15"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="44">
         <f>SUM(C51+C54)</f>
         <v>417550</v>
       </c>
-      <c r="D55" s="36">
+      <c r="D55" s="44">
         <f>SUM(D51+D54)</f>
         <v>824000</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="11"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="36"/>
-      <c r="D56" s="36"/>
-    </row>
-    <row r="57" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A57" s="26"/>
-      <c r="B57" s="9" t="s">
+    <row r="56" spans="1:4" ht="16.5">
+      <c r="A56" s="15"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="44"/>
+      <c r="D56" s="44"/>
+    </row>
+    <row r="57" spans="1:4" ht="16.5">
+      <c r="A57" s="34"/>
+      <c r="B57" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C57" s="36">
+      <c r="C57" s="44">
         <f>SUM(C42+C55)</f>
         <v>97546094</v>
       </c>
-      <c r="D57" s="36">
+      <c r="D57" s="44">
         <f>SUM(D42+D55)</f>
         <v>211272000</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A58" s="26"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="36"/>
-      <c r="D58" s="36"/>
-    </row>
-    <row r="59" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="25"/>
-      <c r="B59" s="23" t="s">
+    <row r="58" spans="1:4" ht="16.5">
+      <c r="A58" s="34"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="44"/>
+      <c r="D58" s="44"/>
+    </row>
+    <row r="59" spans="1:4" ht="15.75">
+      <c r="A59" s="33"/>
+      <c r="B59" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="C59" s="36"/>
-      <c r="D59" s="36"/>
-    </row>
-    <row r="60" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A60" s="26"/>
-      <c r="B60" s="43" t="s">
+      <c r="C59" s="44"/>
+      <c r="D59" s="44"/>
+    </row>
+    <row r="60" spans="1:4" ht="16.5">
+      <c r="A60" s="34"/>
+      <c r="B60" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="C60" s="36">
+      <c r="C60" s="44">
         <v>100000</v>
       </c>
-      <c r="D60" s="36">
+      <c r="D60" s="44">
         <v>200000</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A61" s="26"/>
-      <c r="B61" s="43" t="s">
+    <row r="61" spans="1:4" ht="16.5">
+      <c r="A61" s="34"/>
+      <c r="B61" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="C61" s="36">
+      <c r="C61" s="44">
         <v>20000</v>
       </c>
-      <c r="D61" s="36">
+      <c r="D61" s="44">
         <v>34000</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A62" s="26"/>
-      <c r="B62" s="9"/>
-      <c r="C62" s="36"/>
-      <c r="D62" s="36"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="51"/>
-      <c r="B63" s="51"/>
-      <c r="C63" s="27"/>
-      <c r="D63" s="22"/>
-    </row>
-    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="11"/>
-      <c r="B64" s="13" t="s">
+    <row r="62" spans="1:4" ht="16.5">
+      <c r="A62" s="34"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="44"/>
+      <c r="D62" s="44"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="11"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="35"/>
+      <c r="D63" s="30"/>
+    </row>
+    <row r="64" spans="1:4" ht="30">
+      <c r="A64" s="15"/>
+      <c r="B64" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D64" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="28"/>
-      <c r="B65" s="28"/>
-      <c r="C65" s="17"/>
-      <c r="D65" s="17"/>
-    </row>
-    <row r="66" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="28"/>
-      <c r="B66" s="28"/>
-      <c r="C66" s="17"/>
-      <c r="D66" s="17"/>
-    </row>
-    <row r="67" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="28"/>
-      <c r="B67" s="28"/>
-      <c r="C67" s="17"/>
-      <c r="D67" s="17"/>
-    </row>
-    <row r="68" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="12" t="s">
+    <row r="65" spans="1:4" ht="15.75">
+      <c r="A65" s="36"/>
+      <c r="B65" s="36"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="25"/>
+    </row>
+    <row r="66" spans="1:4" ht="15.75">
+      <c r="A66" s="36"/>
+      <c r="B66" s="36"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="25"/>
+    </row>
+    <row r="67" spans="1:4" ht="15.75">
+      <c r="A67" s="36"/>
+      <c r="B67" s="36"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="25"/>
+    </row>
+    <row r="68" spans="1:4" ht="15.75">
+      <c r="A68" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B68" s="12" t="s">
+      <c r="B68" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C68" s="25"/>
-      <c r="D68" s="28"/>
-    </row>
-    <row r="69" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="11"/>
-      <c r="B69" s="19" t="s">
+      <c r="C68" s="33"/>
+      <c r="D68" s="36"/>
+    </row>
+    <row r="69" spans="1:4" ht="16.5">
+      <c r="A69" s="15"/>
+      <c r="B69" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="C69" s="35">
+      <c r="C69" s="43">
         <v>22000</v>
       </c>
-      <c r="D69" s="35">
+      <c r="D69" s="43">
         <v>46000</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="11"/>
-      <c r="B70" s="19" t="s">
+    <row r="70" spans="1:4" ht="16.5">
+      <c r="A70" s="15"/>
+      <c r="B70" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="C70" s="35">
+      <c r="C70" s="43">
         <v>0</v>
       </c>
-      <c r="D70" s="35">
+      <c r="D70" s="43">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="11"/>
-      <c r="B71" s="19" t="s">
+    <row r="71" spans="1:4" ht="16.5">
+      <c r="A71" s="15"/>
+      <c r="B71" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="C71" s="35">
+      <c r="C71" s="43">
         <v>0</v>
       </c>
-      <c r="D71" s="15" t="s">
+      <c r="D71" s="21" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="28"/>
-      <c r="B72" s="28"/>
-      <c r="C72" s="17"/>
-      <c r="D72" s="17"/>
-    </row>
-    <row r="73" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="28"/>
-      <c r="B73" s="28"/>
-      <c r="C73" s="17"/>
-      <c r="D73" s="17"/>
-    </row>
-    <row r="74" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="7"/>
-      <c r="B74" s="18" t="s">
+    <row r="72" spans="1:4" ht="15.75">
+      <c r="A72" s="36"/>
+      <c r="B72" s="36"/>
+      <c r="C72" s="25"/>
+      <c r="D72" s="25"/>
+    </row>
+    <row r="73" spans="1:4" ht="15.75">
+      <c r="A73" s="36"/>
+      <c r="B73" s="36"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="25"/>
+    </row>
+    <row r="74" spans="1:4" ht="15.75">
+      <c r="A74" s="10"/>
+      <c r="B74" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C74" s="5">
+      <c r="C74" s="8">
         <v>200</v>
       </c>
-      <c r="D74" s="5">
+      <c r="D74" s="8">
         <v>500</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="7"/>
-      <c r="B75" s="18" t="s">
+    <row r="75" spans="1:4" ht="15.75">
+      <c r="A75" s="10"/>
+      <c r="B75" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="C75" s="5">
+      <c r="C75" s="8">
         <v>100</v>
       </c>
-      <c r="D75" s="5">
+      <c r="D75" s="8">
         <v>300</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="28"/>
-      <c r="B76" s="28"/>
-      <c r="C76" s="17"/>
-      <c r="D76" s="17"/>
-    </row>
-    <row r="77" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="28"/>
-      <c r="B77" s="28"/>
-      <c r="C77" s="17"/>
-      <c r="D77" s="17"/>
-    </row>
-    <row r="78" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="11"/>
-      <c r="B78" s="19" t="s">
+    <row r="76" spans="1:4" ht="15.75">
+      <c r="A76" s="36"/>
+      <c r="B76" s="36"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="25"/>
+    </row>
+    <row r="77" spans="1:4" ht="15.75">
+      <c r="A77" s="36"/>
+      <c r="B77" s="36"/>
+      <c r="C77" s="25"/>
+      <c r="D77" s="25"/>
+    </row>
+    <row r="78" spans="1:4" ht="16.5">
+      <c r="A78" s="15"/>
+      <c r="B78" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="C78" s="35">
+      <c r="C78" s="43">
         <v>0</v>
       </c>
-      <c r="D78" s="35">
+      <c r="D78" s="43">
         <v>36676.629999999997</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="11"/>
-      <c r="B79" s="19" t="s">
+    <row r="79" spans="1:4" ht="16.5">
+      <c r="A79" s="15"/>
+      <c r="B79" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="C79" s="35">
+      <c r="C79" s="43">
         <v>0</v>
       </c>
-      <c r="D79" s="35">
+      <c r="D79" s="43">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="28"/>
-      <c r="B80" s="18" t="s">
+    <row r="80" spans="1:4" ht="15.75">
+      <c r="A80" s="36"/>
+      <c r="B80" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5" t="s">
+      <c r="C80" s="8"/>
+      <c r="D80" s="8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="14"/>
-      <c r="B81" s="18" t="s">
+    <row r="81" spans="1:4" ht="15.75">
+      <c r="A81" s="19"/>
+      <c r="B81" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C81" s="5"/>
-      <c r="D81" s="5" t="s">
+      <c r="C81" s="8"/>
+      <c r="D81" s="8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="11"/>
-      <c r="B82" s="43" t="s">
+    <row r="82" spans="1:4" ht="16.5">
+      <c r="A82" s="15"/>
+      <c r="B82" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C82" s="29">
+      <c r="C82" s="37">
         <v>0</v>
       </c>
-      <c r="D82" s="27" t="s">
+      <c r="D82" s="35" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="11"/>
-      <c r="B83" s="43" t="s">
+    <row r="83" spans="1:4" ht="16.5">
+      <c r="A83" s="15"/>
+      <c r="B83" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="C83" s="27">
+      <c r="C83" s="35">
         <v>267000</v>
       </c>
-      <c r="D83" s="27">
+      <c r="D83" s="35">
         <v>300000</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="28"/>
-      <c r="B84" s="18" t="s">
+    <row r="84" spans="1:4" ht="15.75">
+      <c r="A84" s="36"/>
+      <c r="B84" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="C84" s="5">
+      <c r="C84" s="8">
         <v>0</v>
       </c>
-      <c r="D84" s="5">
+      <c r="D84" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="28"/>
-      <c r="B85" s="18" t="s">
+    <row r="85" spans="1:4" ht="15.75">
+      <c r="A85" s="36"/>
+      <c r="B85" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C85" s="5">
+      <c r="C85" s="8">
         <v>0</v>
       </c>
-      <c r="D85" s="5">
+      <c r="D85" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="17"/>
-      <c r="B86" s="18" t="s">
+    <row r="86" spans="1:4" ht="15.75">
+      <c r="A86" s="25"/>
+      <c r="B86" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="C86" s="5">
+      <c r="C86" s="8">
         <v>13000</v>
       </c>
-      <c r="D86" s="5">
+      <c r="D86" s="8">
         <v>258458.9</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="17"/>
-      <c r="B87" s="18" t="s">
+    <row r="87" spans="1:4" ht="15.75">
+      <c r="A87" s="25"/>
+      <c r="B87" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="C87" s="5">
+      <c r="C87" s="8">
         <v>22400</v>
       </c>
-      <c r="D87" s="5">
+      <c r="D87" s="8">
         <v>50000</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="20"/>
-      <c r="B88" s="18" t="s">
+    <row r="88" spans="1:4" ht="78.75" customHeight="1">
+      <c r="A88" s="28"/>
+      <c r="B88" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="C88" s="5">
+      <c r="C88" s="8">
         <v>0</v>
       </c>
-      <c r="D88" s="5">
+      <c r="D88" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="28"/>
-      <c r="B89" s="18" t="s">
+    <row r="89" spans="1:4" ht="15.75">
+      <c r="A89" s="36"/>
+      <c r="B89" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C89" s="5">
+      <c r="C89" s="8">
         <v>0</v>
       </c>
-      <c r="D89" s="5"/>
-    </row>
-    <row r="90" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="28"/>
-      <c r="B90" s="18" t="s">
+      <c r="D89" s="8"/>
+    </row>
+    <row r="90" spans="1:4" ht="15.75">
+      <c r="A90" s="36"/>
+      <c r="B90" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="C90" s="5">
+      <c r="C90" s="8">
         <v>35000</v>
       </c>
-      <c r="D90" s="5">
+      <c r="D90" s="8">
         <v>55000</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="11"/>
+    <row r="91" spans="1:4" ht="16.5">
+      <c r="A91" s="15"/>
       <c r="B91" s="1"/>
-      <c r="C91" s="29">
+      <c r="C91" s="37">
         <f>SUM(C69+C83)</f>
         <v>289000</v>
       </c>
-      <c r="D91" s="29">
+      <c r="D91" s="37">
         <f>SUM(D69+D83)</f>
         <v>346000</v>
       </c>
@@ -2493,24 +2460,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/uploads/attachments/2020/FebFinancials.xlsx
+++ b/uploads/attachments/2020/FebFinancials.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bhutan Code Challenge-2019\BHUTAN STARTUP HACKATHON CHALLENGE\Hackathon_2020\Data\Revenue\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="675" windowWidth="20055" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -249,15 +254,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="#,##0.00\ ;&quot; (&quot;#,##0.00\);&quot; -&quot;#\ ;@\ "/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00\ ;&quot; (&quot;#,##0.00\);&quot; -&quot;#\ ;@\ "/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -506,7 +511,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -695,6 +700,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -933,9 +950,9 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="23" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="23" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="23" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
@@ -955,22 +972,13 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="3"/>
@@ -983,7 +991,6 @@
     <xf numFmtId="0" fontId="20" fillId="34" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="43" fontId="26" fillId="34" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -998,23 +1005,11 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="34" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="35" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="35" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1030,7 +1025,7 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="32" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="32" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1039,30 +1034,30 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="28" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="27" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="31" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="34" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="34" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="28" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="31" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="27" fillId="33" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="27" fillId="33" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1070,8 +1065,36 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="34" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="34" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="74">
@@ -1152,6 +1175,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1198,7 +1229,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1230,9 +1261,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1264,6 +1296,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1439,1011 +1472,1011 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="D91" sqref="A5:D91"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="44.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="22"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="47"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="20"/>
-    </row>
-    <row r="3" spans="1:4" ht="16.5">
-      <c r="A3" s="46"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="52" t="s">
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="50"/>
+    </row>
+    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="38"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="44" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5">
-      <c r="A4" s="39"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="41"/>
-    </row>
-    <row r="5" spans="1:4" ht="31.5">
-      <c r="A5" s="47" t="s">
+    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="31"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="33"/>
+    </row>
+    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="48" t="s">
+      <c r="B5" s="39"/>
+      <c r="C5" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="42" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="24"/>
-    </row>
-    <row r="7" spans="1:4" ht="15.75">
-      <c r="A7" s="16" t="s">
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="52"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="16"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="24"/>
-    </row>
-    <row r="8" spans="1:4" ht="15.75">
-      <c r="A8" s="7"/>
-      <c r="B8" s="16" t="s">
+      <c r="C7" s="30"/>
+      <c r="D7" s="16"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.75">
-      <c r="A9" s="10"/>
-      <c r="B9" s="26" t="s">
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="5">
         <v>1000000</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="5">
         <v>2100000</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75">
-      <c r="A10" s="10"/>
-      <c r="B10" s="26" t="s">
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="5">
         <v>50000</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="5">
         <v>90000</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="7"/>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="27">
         <f>SUM(C9:C10)</f>
         <v>1050000</v>
       </c>
-      <c r="D11" s="35">
+      <c r="D11" s="27">
         <f>SUM(D9:D10)</f>
         <v>2190000</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75">
-      <c r="A12" s="10"/>
-      <c r="B12" s="26" t="s">
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="5">
         <v>50000000</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="5">
         <v>110000000</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75">
-      <c r="A13" s="10"/>
-      <c r="B13" s="26" t="s">
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="5">
         <v>2200000</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="5">
         <v>4000000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75">
-      <c r="A14" s="10"/>
-      <c r="B14" s="26" t="s">
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="5">
         <v>30000000</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="5">
         <v>67000000</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75">
-      <c r="A15" s="10"/>
-      <c r="B15" s="26" t="s">
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="5">
         <v>200000</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="5">
         <v>400000</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75">
-      <c r="A16" s="10"/>
-      <c r="B16" s="26" t="s">
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="5">
         <v>6000000</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="5">
         <v>12500000</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75">
-      <c r="A17" s="10"/>
-      <c r="B17" s="26" t="s">
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="5">
         <v>200000</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="5">
         <v>300000</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75">
-      <c r="A18" s="10"/>
-      <c r="B18" s="26" t="s">
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="5">
         <v>150000</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="5">
         <v>200000</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75">
-      <c r="A19" s="10"/>
-      <c r="B19" s="26" t="s">
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="5">
         <v>2100000</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="5">
         <v>3100000</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75">
-      <c r="A20" s="10"/>
-      <c r="B20" s="26" t="s">
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="5">
         <v>245000</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="5">
         <v>345000</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75">
-      <c r="A21" s="10"/>
-      <c r="B21" s="26" t="s">
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="5">
         <v>1000000</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="5">
         <v>2300000</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75">
-      <c r="A22" s="10"/>
-      <c r="B22" s="26" t="s">
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="5">
         <v>62544</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="29"/>
-      <c r="B23" s="6" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="21"/>
+      <c r="B23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="43">
+      <c r="C23" s="35">
         <f>SUM(C12:C22)</f>
         <v>92157544</v>
       </c>
-      <c r="D23" s="43">
+      <c r="D23" s="35">
         <f>SUM(D12:D22)</f>
         <v>200145000</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75">
-      <c r="A24" s="10"/>
-      <c r="B24" s="26" t="s">
+    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="5">
         <v>300000</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="5">
         <v>800000</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75">
-      <c r="A25" s="10"/>
-      <c r="B25" s="26" t="s">
+    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="5">
         <v>900000</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="5">
         <v>1900000</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75">
-      <c r="A26" s="10"/>
-      <c r="B26" s="26" t="s">
+    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="5">
         <v>1200000</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="5">
         <v>2500000</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75">
-      <c r="A27" s="10"/>
-      <c r="B27" s="26" t="s">
+    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="5">
         <v>125000</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="5">
         <v>310000</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75">
-      <c r="A28" s="10"/>
-      <c r="B28" s="26" t="s">
+    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="5">
         <v>20000</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="5">
         <v>49000</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.75">
-      <c r="A29" s="10"/>
-      <c r="B29" s="26" t="s">
+    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="5">
         <v>25000</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="5">
         <v>54000</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.75">
-      <c r="A30" s="10"/>
-      <c r="B30" s="26" t="s">
+    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="B30" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="5">
         <v>30000</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="5">
         <v>59000</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75">
-      <c r="A31" s="10"/>
-      <c r="B31" s="26" t="s">
+    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="5">
         <v>35000</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="5">
         <v>64000</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.75">
-      <c r="A32" s="10"/>
-      <c r="B32" s="26" t="s">
+    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="5">
         <v>40000</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="5">
         <v>69000</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.75">
-      <c r="A33" s="10"/>
-      <c r="B33" s="26" t="s">
+    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="B33" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="5">
         <v>460000</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="5">
         <v>900000</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75">
-      <c r="A34" s="10"/>
-      <c r="B34" s="26" t="s">
+    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="5">
         <v>10000</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="5">
         <v>23000</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="29"/>
-      <c r="B35" s="6" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="21"/>
+      <c r="B35" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="43">
+      <c r="C35" s="35">
         <f>SUM(C24:C34)</f>
         <v>3145000</v>
       </c>
-      <c r="D35" s="43">
+      <c r="D35" s="35">
         <f>SUM(D24:D34)</f>
         <v>6728000</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.75">
-      <c r="A36" s="10"/>
-      <c r="B36" s="26" t="s">
+    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="5">
         <v>200000</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="5">
         <v>435000</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15.75">
-      <c r="A37" s="10"/>
-      <c r="B37" s="26" t="s">
+    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="5">
         <v>0</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.75">
-      <c r="A38" s="10"/>
-      <c r="B38" s="26" t="s">
+    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="5">
         <v>345000</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="5">
         <v>650000</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.75">
-      <c r="A39" s="10"/>
-      <c r="B39" s="26" t="s">
+    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="B39" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="5">
         <v>185000</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="5">
         <v>300000</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.75">
-      <c r="A40" s="10"/>
-      <c r="B40" s="26" t="s">
+    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="7"/>
+      <c r="B40" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40" s="5">
         <v>46000</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="29"/>
-      <c r="B41" s="6" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="21"/>
+      <c r="B41" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="43">
+      <c r="C41" s="35">
         <f>SUM(C36:C40)</f>
         <v>776000</v>
       </c>
-      <c r="D41" s="43">
+      <c r="D41" s="35">
         <f>SUM(D36:D40)</f>
         <v>1385000</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="29"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="44">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="21"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="36">
         <f>SUM(C41+C35+C23+C11)</f>
         <v>97128544</v>
       </c>
-      <c r="D42" s="44">
+      <c r="D42" s="36">
         <f>SUM(D41+D35+D23+D11)</f>
         <v>210448000</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75">
-      <c r="A43" s="10"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="12">
+    <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="7"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="8">
         <f>C42</f>
         <v>97128544</v>
       </c>
-      <c r="D43" s="12">
+      <c r="D43" s="8">
         <f>D42</f>
         <v>210448000</v>
       </c>
-      <c r="E43" s="9"/>
-    </row>
-    <row r="44" spans="1:5" ht="15.75">
-      <c r="A44" s="29"/>
-      <c r="B44" s="32" t="s">
+      <c r="E43" s="6"/>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="21"/>
+      <c r="B44" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43"/>
-    </row>
-    <row r="45" spans="1:5" ht="15.75">
-      <c r="A45" s="10"/>
-      <c r="B45" s="26" t="s">
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="7"/>
+      <c r="B45" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45" s="5">
         <v>50000</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D45" s="5">
         <v>123000</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.75">
-      <c r="A46" s="10"/>
-      <c r="B46" s="26" t="s">
+    <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="7"/>
+      <c r="B46" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C46" s="5">
         <v>56000</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D46" s="5">
         <v>125000</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75">
-      <c r="A47" s="10"/>
-      <c r="B47" s="26" t="s">
+    <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="7"/>
+      <c r="B47" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C47" s="5">
         <v>62000</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D47" s="5">
         <v>127000</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.75">
-      <c r="A48" s="10"/>
-      <c r="B48" s="26" t="s">
+    <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
+      <c r="B48" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C48" s="8">
+      <c r="C48" s="5">
         <v>68000</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D48" s="5">
         <v>129000</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75">
-      <c r="A49" s="10"/>
-      <c r="B49" s="26" t="s">
+    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="7"/>
+      <c r="B49" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C49" s="5">
         <v>74000</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D49" s="5">
         <v>131000</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15.75">
-      <c r="A50" s="10"/>
-      <c r="B50" s="26" t="s">
+    <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="7"/>
+      <c r="B50" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C50" s="8">
+      <c r="C50" s="5">
         <v>80000</v>
       </c>
-      <c r="D50" s="8">
+      <c r="D50" s="5">
         <v>133000</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="29"/>
-      <c r="B51" s="6" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="21"/>
+      <c r="B51" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C51" s="14">
+      <c r="C51" s="10">
         <f>SUM(C45:C50)</f>
         <v>390000</v>
       </c>
-      <c r="D51" s="14">
+      <c r="D51" s="10">
         <f>SUM(D45:D50)</f>
         <v>768000</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15.75">
-      <c r="A52" s="10"/>
-      <c r="B52" s="26" t="s">
+    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="7"/>
+      <c r="B52" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C52" s="8">
+      <c r="C52" s="5">
         <v>15000</v>
       </c>
-      <c r="D52" s="8">
+      <c r="D52" s="5">
         <v>30000</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75">
-      <c r="A53" s="10"/>
-      <c r="B53" s="26" t="s">
+    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="7"/>
+      <c r="B53" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C53" s="8">
+      <c r="C53" s="5">
         <v>12550</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D53" s="5">
         <v>26000</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="16.5">
-      <c r="A54" s="15"/>
-      <c r="B54" s="6" t="s">
+    <row r="54" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="11"/>
+      <c r="B54" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C54" s="43">
+      <c r="C54" s="35">
         <f>SUM(C52:C53)</f>
         <v>27550</v>
       </c>
-      <c r="D54" s="43">
+      <c r="D54" s="35">
         <f>SUM(D52:D53)</f>
         <v>56000</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="16.5">
-      <c r="A55" s="15"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="44">
+    <row r="55" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="11"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="36">
         <f>SUM(C51+C54)</f>
         <v>417550</v>
       </c>
-      <c r="D55" s="44">
+      <c r="D55" s="36">
         <f>SUM(D51+D54)</f>
         <v>824000</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="16.5">
-      <c r="A56" s="15"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="44"/>
-      <c r="D56" s="44"/>
-    </row>
-    <row r="57" spans="1:4" ht="16.5">
-      <c r="A57" s="34"/>
-      <c r="B57" s="13" t="s">
+    <row r="56" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="11"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="36"/>
+    </row>
+    <row r="57" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A57" s="26"/>
+      <c r="B57" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C57" s="44">
+      <c r="C57" s="36">
         <f>SUM(C42+C55)</f>
         <v>97546094</v>
       </c>
-      <c r="D57" s="44">
+      <c r="D57" s="36">
         <f>SUM(D42+D55)</f>
         <v>211272000</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="16.5">
-      <c r="A58" s="34"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="44"/>
-      <c r="D58" s="44"/>
-    </row>
-    <row r="59" spans="1:4" ht="15.75">
-      <c r="A59" s="33"/>
-      <c r="B59" s="31" t="s">
+    <row r="58" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A58" s="26"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="36"/>
+    </row>
+    <row r="59" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="25"/>
+      <c r="B59" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C59" s="44"/>
-      <c r="D59" s="44"/>
-    </row>
-    <row r="60" spans="1:4" ht="16.5">
-      <c r="A60" s="34"/>
-      <c r="B60" s="51" t="s">
+      <c r="C59" s="36"/>
+      <c r="D59" s="36"/>
+    </row>
+    <row r="60" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A60" s="26"/>
+      <c r="B60" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="C60" s="44">
+      <c r="C60" s="36">
         <v>100000</v>
       </c>
-      <c r="D60" s="44">
+      <c r="D60" s="36">
         <v>200000</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="16.5">
-      <c r="A61" s="34"/>
-      <c r="B61" s="51" t="s">
+    <row r="61" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A61" s="26"/>
+      <c r="B61" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="C61" s="44">
+      <c r="C61" s="36">
         <v>20000</v>
       </c>
-      <c r="D61" s="44">
+      <c r="D61" s="36">
         <v>34000</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="16.5">
-      <c r="A62" s="34"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="44"/>
-      <c r="D62" s="44"/>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="11"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="35"/>
-      <c r="D63" s="30"/>
-    </row>
-    <row r="64" spans="1:4" ht="30">
-      <c r="A64" s="15"/>
-      <c r="B64" s="17" t="s">
+    <row r="62" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A62" s="26"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="36"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="51"/>
+      <c r="B63" s="51"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="22"/>
+    </row>
+    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="11"/>
+      <c r="B64" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D64" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15.75">
-      <c r="A65" s="36"/>
-      <c r="B65" s="36"/>
-      <c r="C65" s="25"/>
-      <c r="D65" s="25"/>
-    </row>
-    <row r="66" spans="1:4" ht="15.75">
-      <c r="A66" s="36"/>
-      <c r="B66" s="36"/>
-      <c r="C66" s="25"/>
-      <c r="D66" s="25"/>
-    </row>
-    <row r="67" spans="1:4" ht="15.75">
-      <c r="A67" s="36"/>
-      <c r="B67" s="36"/>
-      <c r="C67" s="25"/>
-      <c r="D67" s="25"/>
-    </row>
-    <row r="68" spans="1:4" ht="15.75">
-      <c r="A68" s="16" t="s">
+    <row r="65" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="28"/>
+      <c r="B65" s="28"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
+    </row>
+    <row r="66" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="28"/>
+      <c r="B66" s="28"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+    </row>
+    <row r="67" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="28"/>
+      <c r="B67" s="28"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17"/>
+    </row>
+    <row r="68" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B68" s="16" t="s">
+      <c r="B68" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C68" s="33"/>
-      <c r="D68" s="36"/>
-    </row>
-    <row r="69" spans="1:4" ht="16.5">
-      <c r="A69" s="15"/>
-      <c r="B69" s="27" t="s">
+      <c r="C68" s="25"/>
+      <c r="D68" s="28"/>
+    </row>
+    <row r="69" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A69" s="11"/>
+      <c r="B69" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C69" s="43">
+      <c r="C69" s="35">
         <v>22000</v>
       </c>
-      <c r="D69" s="43">
+      <c r="D69" s="35">
         <v>46000</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="16.5">
-      <c r="A70" s="15"/>
-      <c r="B70" s="27" t="s">
+    <row r="70" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A70" s="11"/>
+      <c r="B70" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C70" s="43">
+      <c r="C70" s="35">
         <v>0</v>
       </c>
-      <c r="D70" s="43">
+      <c r="D70" s="35">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="16.5">
-      <c r="A71" s="15"/>
-      <c r="B71" s="27" t="s">
+    <row r="71" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="11"/>
+      <c r="B71" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C71" s="43">
+      <c r="C71" s="35">
         <v>0</v>
       </c>
-      <c r="D71" s="21" t="s">
+      <c r="D71" s="15" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15.75">
-      <c r="A72" s="36"/>
-      <c r="B72" s="36"/>
-      <c r="C72" s="25"/>
-      <c r="D72" s="25"/>
-    </row>
-    <row r="73" spans="1:4" ht="15.75">
-      <c r="A73" s="36"/>
-      <c r="B73" s="36"/>
-      <c r="C73" s="25"/>
-      <c r="D73" s="25"/>
-    </row>
-    <row r="74" spans="1:4" ht="15.75">
-      <c r="A74" s="10"/>
-      <c r="B74" s="26" t="s">
+    <row r="72" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="28"/>
+      <c r="B72" s="28"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
+    </row>
+    <row r="73" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="28"/>
+      <c r="B73" s="28"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
+    </row>
+    <row r="74" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="7"/>
+      <c r="B74" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C74" s="8">
+      <c r="C74" s="5">
         <v>200</v>
       </c>
-      <c r="D74" s="8">
+      <c r="D74" s="5">
         <v>500</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15.75">
-      <c r="A75" s="10"/>
-      <c r="B75" s="26" t="s">
+    <row r="75" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="7"/>
+      <c r="B75" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C75" s="8">
+      <c r="C75" s="5">
         <v>100</v>
       </c>
-      <c r="D75" s="8">
+      <c r="D75" s="5">
         <v>300</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15.75">
-      <c r="A76" s="36"/>
-      <c r="B76" s="36"/>
-      <c r="C76" s="25"/>
-      <c r="D76" s="25"/>
-    </row>
-    <row r="77" spans="1:4" ht="15.75">
-      <c r="A77" s="36"/>
-      <c r="B77" s="36"/>
-      <c r="C77" s="25"/>
-      <c r="D77" s="25"/>
-    </row>
-    <row r="78" spans="1:4" ht="16.5">
-      <c r="A78" s="15"/>
-      <c r="B78" s="27" t="s">
+    <row r="76" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="28"/>
+      <c r="B76" s="28"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17"/>
+    </row>
+    <row r="77" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="28"/>
+      <c r="B77" s="28"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
+    </row>
+    <row r="78" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A78" s="11"/>
+      <c r="B78" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="C78" s="43">
+      <c r="C78" s="35">
         <v>0</v>
       </c>
-      <c r="D78" s="43">
+      <c r="D78" s="35">
         <v>36676.629999999997</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="16.5">
-      <c r="A79" s="15"/>
-      <c r="B79" s="27" t="s">
+    <row r="79" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A79" s="11"/>
+      <c r="B79" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="C79" s="43">
+      <c r="C79" s="35">
         <v>0</v>
       </c>
-      <c r="D79" s="43">
+      <c r="D79" s="35">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15.75">
-      <c r="A80" s="36"/>
-      <c r="B80" s="26" t="s">
+    <row r="80" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="28"/>
+      <c r="B80" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8" t="s">
+      <c r="C80" s="5"/>
+      <c r="D80" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15.75">
-      <c r="A81" s="19"/>
-      <c r="B81" s="26" t="s">
+    <row r="81" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="14"/>
+      <c r="B81" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8" t="s">
+      <c r="C81" s="5"/>
+      <c r="D81" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="16.5">
-      <c r="A82" s="15"/>
-      <c r="B82" s="51" t="s">
+    <row r="82" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A82" s="11"/>
+      <c r="B82" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="C82" s="37">
+      <c r="C82" s="29">
         <v>0</v>
       </c>
-      <c r="D82" s="35" t="s">
+      <c r="D82" s="27" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="16.5">
-      <c r="A83" s="15"/>
-      <c r="B83" s="51" t="s">
+    <row r="83" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A83" s="11"/>
+      <c r="B83" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="C83" s="35">
+      <c r="C83" s="27">
         <v>267000</v>
       </c>
-      <c r="D83" s="35">
+      <c r="D83" s="27">
         <v>300000</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15.75">
-      <c r="A84" s="36"/>
-      <c r="B84" s="26" t="s">
+    <row r="84" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="28"/>
+      <c r="B84" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="C84" s="8">
+      <c r="C84" s="5">
         <v>0</v>
       </c>
-      <c r="D84" s="8">
+      <c r="D84" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15.75">
-      <c r="A85" s="36"/>
-      <c r="B85" s="26" t="s">
+    <row r="85" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="28"/>
+      <c r="B85" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C85" s="8">
+      <c r="C85" s="5">
         <v>0</v>
       </c>
-      <c r="D85" s="8">
+      <c r="D85" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15.75">
-      <c r="A86" s="25"/>
-      <c r="B86" s="26" t="s">
+    <row r="86" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="17"/>
+      <c r="B86" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C86" s="8">
+      <c r="C86" s="5">
         <v>13000</v>
       </c>
-      <c r="D86" s="8">
+      <c r="D86" s="5">
         <v>258458.9</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15.75">
-      <c r="A87" s="25"/>
-      <c r="B87" s="26" t="s">
+    <row r="87" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="17"/>
+      <c r="B87" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C87" s="8">
+      <c r="C87" s="5">
         <v>22400</v>
       </c>
-      <c r="D87" s="8">
+      <c r="D87" s="5">
         <v>50000</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="78.75" customHeight="1">
-      <c r="A88" s="28"/>
-      <c r="B88" s="26" t="s">
+    <row r="88" spans="1:4" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="20"/>
+      <c r="B88" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C88" s="8">
+      <c r="C88" s="5">
         <v>0</v>
       </c>
-      <c r="D88" s="8">
+      <c r="D88" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15.75">
-      <c r="A89" s="36"/>
-      <c r="B89" s="26" t="s">
+    <row r="89" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="28"/>
+      <c r="B89" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C89" s="8">
+      <c r="C89" s="5">
         <v>0</v>
       </c>
-      <c r="D89" s="8"/>
-    </row>
-    <row r="90" spans="1:4" ht="15.75">
-      <c r="A90" s="36"/>
-      <c r="B90" s="26" t="s">
+      <c r="D89" s="5"/>
+    </row>
+    <row r="90" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="28"/>
+      <c r="B90" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C90" s="8">
+      <c r="C90" s="5">
         <v>35000</v>
       </c>
-      <c r="D90" s="8">
+      <c r="D90" s="5">
         <v>55000</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="16.5">
-      <c r="A91" s="15"/>
+    <row r="91" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A91" s="11"/>
       <c r="B91" s="1"/>
-      <c r="C91" s="37">
+      <c r="C91" s="29">
         <f>SUM(C69+C83)</f>
         <v>289000</v>
       </c>
-      <c r="D91" s="37">
+      <c r="D91" s="29">
         <f>SUM(D69+D83)</f>
         <v>346000</v>
       </c>
@@ -2460,24 +2493,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/uploads/attachments/2020/FebFinancials.xlsx
+++ b/uploads/attachments/2020/FebFinancials.xlsx
@@ -5,23 +5,21 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bhutan Code Challenge-2019\BHUTAN STARTUP HACKATHON CHALLENGE\Hackathon_2020\Data\Revenue\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bhutan Code Challenge-2019\BHUTAN STARTUP HACKATHON CHALLENGE\after event\data\Revenue\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="675" windowWidth="20055" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="1275" windowWidth="20055" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="86">
   <si>
     <t>BHUTAN TELECOM LIMITED</t>
   </si>
@@ -249,6 +247,36 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>As at 31st March, 2019</t>
+  </si>
+  <si>
+    <t>As at 28th April, 2019</t>
+  </si>
+  <si>
+    <t>As at 31st May, 2019</t>
+  </si>
+  <si>
+    <t>As at 28th June, 2019</t>
+  </si>
+  <si>
+    <t>As at 31st July, 2019</t>
+  </si>
+  <si>
+    <t>As at 28th August, 2019</t>
+  </si>
+  <si>
+    <t>As at 31st September, 2019</t>
+  </si>
+  <si>
+    <t>As at 28th October, 2019</t>
+  </si>
+  <si>
+    <t>As at 31st November, 2019</t>
+  </si>
+  <si>
+    <t>As at 28th December, 2019</t>
   </si>
 </sst>
 </file>
@@ -987,7 +1015,6 @@
     <xf numFmtId="43" fontId="25" fillId="34" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1068,6 +1095,13 @@
     <xf numFmtId="165" fontId="34" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1089,12 +1123,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="74">
@@ -1473,88 +1501,157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E91"/>
+  <dimension ref="A1:N91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94"/>
+    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="44.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="47"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="50"/>
-    </row>
-    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="38"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="44" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="52"/>
+    </row>
+    <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="37"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="43" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="31"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="33"/>
-    </row>
-    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+    <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="30"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="32"/>
+    </row>
+    <row r="5" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="40" t="s">
+      <c r="B5" s="38"/>
+      <c r="C5" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="41" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="52"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="16"/>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="E5" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="I5" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="J5" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="K5" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="L5" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="M5" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="N5" s="41" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="15"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="16"/>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C7" s="29"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="15"/>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="18" t="s">
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="17" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="5">
@@ -1563,10 +1660,40 @@
       <c r="D9" s="5">
         <v>2100000</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="18" t="s">
+      <c r="E9" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="F9" s="5">
+        <v>2100000</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="H9" s="5">
+        <v>2100000</v>
+      </c>
+      <c r="I9" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="J9" s="5">
+        <v>2100000</v>
+      </c>
+      <c r="K9" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="L9" s="5">
+        <v>2100000</v>
+      </c>
+      <c r="M9" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="N9" s="5">
+        <v>2100000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="17" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="5">
@@ -1575,24 +1702,94 @@
       <c r="D10" s="5">
         <v>90000</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="5">
+        <v>50000</v>
+      </c>
+      <c r="F10" s="5">
+        <v>90000</v>
+      </c>
+      <c r="G10" s="5">
+        <v>50000</v>
+      </c>
+      <c r="H10" s="5">
+        <v>90000</v>
+      </c>
+      <c r="I10" s="5">
+        <v>50000</v>
+      </c>
+      <c r="J10" s="5">
+        <v>90000</v>
+      </c>
+      <c r="K10" s="5">
+        <v>50000</v>
+      </c>
+      <c r="L10" s="5">
+        <v>90000</v>
+      </c>
+      <c r="M10" s="5">
+        <v>50000</v>
+      </c>
+      <c r="N10" s="5">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="26">
         <f>SUM(C9:C10)</f>
         <v>1050000</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="26">
         <f>SUM(D9:D10)</f>
         <v>2190000</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="18" t="s">
+      <c r="E11" s="26">
+        <f>SUM(E9:E10)</f>
+        <v>1050000</v>
+      </c>
+      <c r="F11" s="26">
+        <f>SUM(F9:F10)</f>
+        <v>2190000</v>
+      </c>
+      <c r="G11" s="26">
+        <f>SUM(G9:G10)</f>
+        <v>1050000</v>
+      </c>
+      <c r="H11" s="26">
+        <f>SUM(H9:H10)</f>
+        <v>2190000</v>
+      </c>
+      <c r="I11" s="26">
+        <f>SUM(I9:I10)</f>
+        <v>1050000</v>
+      </c>
+      <c r="J11" s="26">
+        <f>SUM(J9:J10)</f>
+        <v>2190000</v>
+      </c>
+      <c r="K11" s="26">
+        <f>SUM(K9:K10)</f>
+        <v>1050000</v>
+      </c>
+      <c r="L11" s="26">
+        <f>SUM(L9:L10)</f>
+        <v>2190000</v>
+      </c>
+      <c r="M11" s="26">
+        <f>SUM(M9:M10)</f>
+        <v>1050000</v>
+      </c>
+      <c r="N11" s="26">
+        <f>SUM(N9:N10)</f>
+        <v>2190000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="5">
@@ -1601,10 +1798,40 @@
       <c r="D12" s="5">
         <v>110000000</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="18" t="s">
+      <c r="E12" s="5">
+        <v>50000000</v>
+      </c>
+      <c r="F12" s="5">
+        <v>110000000</v>
+      </c>
+      <c r="G12" s="5">
+        <v>50000000</v>
+      </c>
+      <c r="H12" s="5">
+        <v>110000000</v>
+      </c>
+      <c r="I12" s="5">
+        <v>50000000</v>
+      </c>
+      <c r="J12" s="5">
+        <v>110000000</v>
+      </c>
+      <c r="K12" s="5">
+        <v>50000000</v>
+      </c>
+      <c r="L12" s="5">
+        <v>110000000</v>
+      </c>
+      <c r="M12" s="5">
+        <v>50000000</v>
+      </c>
+      <c r="N12" s="5">
+        <v>110000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="5">
@@ -1613,10 +1840,40 @@
       <c r="D13" s="5">
         <v>4000000</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="18" t="s">
+      <c r="E13" s="5">
+        <v>2200000</v>
+      </c>
+      <c r="F13" s="5">
+        <v>4000000</v>
+      </c>
+      <c r="G13" s="5">
+        <v>2200000</v>
+      </c>
+      <c r="H13" s="5">
+        <v>4000000</v>
+      </c>
+      <c r="I13" s="5">
+        <v>2200000</v>
+      </c>
+      <c r="J13" s="5">
+        <v>4000000</v>
+      </c>
+      <c r="K13" s="5">
+        <v>2200000</v>
+      </c>
+      <c r="L13" s="5">
+        <v>4000000</v>
+      </c>
+      <c r="M13" s="5">
+        <v>2200000</v>
+      </c>
+      <c r="N13" s="5">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="17" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="5">
@@ -1625,10 +1882,40 @@
       <c r="D14" s="5">
         <v>67000000</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="18" t="s">
+      <c r="E14" s="5">
+        <v>30000000</v>
+      </c>
+      <c r="F14" s="5">
+        <v>67000000</v>
+      </c>
+      <c r="G14" s="5">
+        <v>30000000</v>
+      </c>
+      <c r="H14" s="5">
+        <v>67000000</v>
+      </c>
+      <c r="I14" s="5">
+        <v>30000000</v>
+      </c>
+      <c r="J14" s="5">
+        <v>67000000</v>
+      </c>
+      <c r="K14" s="5">
+        <v>30000000</v>
+      </c>
+      <c r="L14" s="5">
+        <v>67000000</v>
+      </c>
+      <c r="M14" s="5">
+        <v>30000000</v>
+      </c>
+      <c r="N14" s="5">
+        <v>67000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="17" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="5">
@@ -1637,10 +1924,40 @@
       <c r="D15" s="5">
         <v>400000</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="53" t="s">
+      <c r="E15" s="5">
+        <v>200000</v>
+      </c>
+      <c r="F15" s="5">
+        <v>400000</v>
+      </c>
+      <c r="G15" s="5">
+        <v>200000</v>
+      </c>
+      <c r="H15" s="5">
+        <v>400000</v>
+      </c>
+      <c r="I15" s="5">
+        <v>200000</v>
+      </c>
+      <c r="J15" s="5">
+        <v>400000</v>
+      </c>
+      <c r="K15" s="5">
+        <v>200000</v>
+      </c>
+      <c r="L15" s="5">
+        <v>400000</v>
+      </c>
+      <c r="M15" s="5">
+        <v>200000</v>
+      </c>
+      <c r="N15" s="5">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="45" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="5">
@@ -1649,10 +1966,40 @@
       <c r="D16" s="5">
         <v>12500000</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="18" t="s">
+      <c r="E16" s="5">
+        <v>6000000</v>
+      </c>
+      <c r="F16" s="5">
+        <v>12500000</v>
+      </c>
+      <c r="G16" s="5">
+        <v>6000000</v>
+      </c>
+      <c r="H16" s="5">
+        <v>12500000</v>
+      </c>
+      <c r="I16" s="5">
+        <v>6000000</v>
+      </c>
+      <c r="J16" s="5">
+        <v>12500000</v>
+      </c>
+      <c r="K16" s="5">
+        <v>6000000</v>
+      </c>
+      <c r="L16" s="5">
+        <v>12500000</v>
+      </c>
+      <c r="M16" s="5">
+        <v>6000000</v>
+      </c>
+      <c r="N16" s="5">
+        <v>12500000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="17" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="5">
@@ -1661,10 +2008,40 @@
       <c r="D17" s="5">
         <v>300000</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="53" t="s">
+      <c r="E17" s="5">
+        <v>200000</v>
+      </c>
+      <c r="F17" s="5">
+        <v>300000</v>
+      </c>
+      <c r="G17" s="5">
+        <v>200000</v>
+      </c>
+      <c r="H17" s="5">
+        <v>300000</v>
+      </c>
+      <c r="I17" s="5">
+        <v>200000</v>
+      </c>
+      <c r="J17" s="5">
+        <v>300000</v>
+      </c>
+      <c r="K17" s="5">
+        <v>200000</v>
+      </c>
+      <c r="L17" s="5">
+        <v>300000</v>
+      </c>
+      <c r="M17" s="5">
+        <v>200000</v>
+      </c>
+      <c r="N17" s="5">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="45" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="5">
@@ -1673,10 +2050,40 @@
       <c r="D18" s="5">
         <v>200000</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="18" t="s">
+      <c r="E18" s="5">
+        <v>150000</v>
+      </c>
+      <c r="F18" s="5">
+        <v>200000</v>
+      </c>
+      <c r="G18" s="5">
+        <v>150000</v>
+      </c>
+      <c r="H18" s="5">
+        <v>200000</v>
+      </c>
+      <c r="I18" s="5">
+        <v>150000</v>
+      </c>
+      <c r="J18" s="5">
+        <v>200000</v>
+      </c>
+      <c r="K18" s="5">
+        <v>150000</v>
+      </c>
+      <c r="L18" s="5">
+        <v>200000</v>
+      </c>
+      <c r="M18" s="5">
+        <v>150000</v>
+      </c>
+      <c r="N18" s="5">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="17" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="5">
@@ -1685,10 +2092,40 @@
       <c r="D19" s="5">
         <v>3100000</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="18" t="s">
+      <c r="E19" s="5">
+        <v>2100000</v>
+      </c>
+      <c r="F19" s="5">
+        <v>3100000</v>
+      </c>
+      <c r="G19" s="5">
+        <v>2100000</v>
+      </c>
+      <c r="H19" s="5">
+        <v>3100000</v>
+      </c>
+      <c r="I19" s="5">
+        <v>2100000</v>
+      </c>
+      <c r="J19" s="5">
+        <v>3100000</v>
+      </c>
+      <c r="K19" s="5">
+        <v>2100000</v>
+      </c>
+      <c r="L19" s="5">
+        <v>3100000</v>
+      </c>
+      <c r="M19" s="5">
+        <v>2100000</v>
+      </c>
+      <c r="N19" s="5">
+        <v>3100000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="17" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="5">
@@ -1697,10 +2134,40 @@
       <c r="D20" s="5">
         <v>345000</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="18" t="s">
+      <c r="E20" s="5">
+        <v>245000</v>
+      </c>
+      <c r="F20" s="5">
+        <v>345000</v>
+      </c>
+      <c r="G20" s="5">
+        <v>245000</v>
+      </c>
+      <c r="H20" s="5">
+        <v>345000</v>
+      </c>
+      <c r="I20" s="5">
+        <v>245000</v>
+      </c>
+      <c r="J20" s="5">
+        <v>345000</v>
+      </c>
+      <c r="K20" s="5">
+        <v>245000</v>
+      </c>
+      <c r="L20" s="5">
+        <v>345000</v>
+      </c>
+      <c r="M20" s="5">
+        <v>245000</v>
+      </c>
+      <c r="N20" s="5">
+        <v>345000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="17" t="s">
         <v>18</v>
       </c>
       <c r="C21" s="5">
@@ -1709,10 +2176,40 @@
       <c r="D21" s="5">
         <v>2300000</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="53" t="s">
+      <c r="E21" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="F21" s="5">
+        <v>2300000</v>
+      </c>
+      <c r="G21" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="H21" s="5">
+        <v>2300000</v>
+      </c>
+      <c r="I21" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="J21" s="5">
+        <v>2300000</v>
+      </c>
+      <c r="K21" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="L21" s="5">
+        <v>2300000</v>
+      </c>
+      <c r="M21" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="N21" s="5">
+        <v>2300000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="45" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="5">
@@ -1721,24 +2218,94 @@
       <c r="D22" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
+      <c r="E22" s="5">
+        <v>62544</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5">
+        <v>62544</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0</v>
+      </c>
+      <c r="I22" s="5">
+        <v>62544</v>
+      </c>
+      <c r="J22" s="5">
+        <v>0</v>
+      </c>
+      <c r="K22" s="5">
+        <v>62544</v>
+      </c>
+      <c r="L22" s="5">
+        <v>0</v>
+      </c>
+      <c r="M22" s="5">
+        <v>62544</v>
+      </c>
+      <c r="N22" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="20"/>
       <c r="B23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="35">
+      <c r="C23" s="34">
         <f>SUM(C12:C22)</f>
         <v>92157544</v>
       </c>
-      <c r="D23" s="35">
+      <c r="D23" s="34">
         <f>SUM(D12:D22)</f>
         <v>200145000</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="54" t="s">
+      <c r="E23" s="34">
+        <f>SUM(E12:E22)</f>
+        <v>92157544</v>
+      </c>
+      <c r="F23" s="34">
+        <f>SUM(F12:F22)</f>
+        <v>200145000</v>
+      </c>
+      <c r="G23" s="34">
+        <f>SUM(G12:G22)</f>
+        <v>92157544</v>
+      </c>
+      <c r="H23" s="34">
+        <f>SUM(H12:H22)</f>
+        <v>200145000</v>
+      </c>
+      <c r="I23" s="34">
+        <f>SUM(I12:I22)</f>
+        <v>92157544</v>
+      </c>
+      <c r="J23" s="34">
+        <f>SUM(J12:J22)</f>
+        <v>200145000</v>
+      </c>
+      <c r="K23" s="34">
+        <f>SUM(K12:K22)</f>
+        <v>92157544</v>
+      </c>
+      <c r="L23" s="34">
+        <f>SUM(L12:L22)</f>
+        <v>200145000</v>
+      </c>
+      <c r="M23" s="34">
+        <f>SUM(M12:M22)</f>
+        <v>92157544</v>
+      </c>
+      <c r="N23" s="34">
+        <f>SUM(N12:N22)</f>
+        <v>200145000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="46" t="s">
         <v>21</v>
       </c>
       <c r="C24" s="5">
@@ -1747,10 +2314,40 @@
       <c r="D24" s="5">
         <v>800000</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="54" t="s">
+      <c r="E24" s="5">
+        <v>300000</v>
+      </c>
+      <c r="F24" s="5">
+        <v>800000</v>
+      </c>
+      <c r="G24" s="5">
+        <v>300000</v>
+      </c>
+      <c r="H24" s="5">
+        <v>800000</v>
+      </c>
+      <c r="I24" s="5">
+        <v>300000</v>
+      </c>
+      <c r="J24" s="5">
+        <v>800000</v>
+      </c>
+      <c r="K24" s="5">
+        <v>300000</v>
+      </c>
+      <c r="L24" s="5">
+        <v>800000</v>
+      </c>
+      <c r="M24" s="5">
+        <v>300000</v>
+      </c>
+      <c r="N24" s="5">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="46" t="s">
         <v>22</v>
       </c>
       <c r="C25" s="5">
@@ -1759,10 +2356,40 @@
       <c r="D25" s="5">
         <v>1900000</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="18" t="s">
+      <c r="E25" s="5">
+        <v>900000</v>
+      </c>
+      <c r="F25" s="5">
+        <v>1900000</v>
+      </c>
+      <c r="G25" s="5">
+        <v>900000</v>
+      </c>
+      <c r="H25" s="5">
+        <v>1900000</v>
+      </c>
+      <c r="I25" s="5">
+        <v>900000</v>
+      </c>
+      <c r="J25" s="5">
+        <v>1900000</v>
+      </c>
+      <c r="K25" s="5">
+        <v>900000</v>
+      </c>
+      <c r="L25" s="5">
+        <v>1900000</v>
+      </c>
+      <c r="M25" s="5">
+        <v>900000</v>
+      </c>
+      <c r="N25" s="5">
+        <v>1900000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C26" s="5">
@@ -1771,10 +2398,40 @@
       <c r="D26" s="5">
         <v>2500000</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="18" t="s">
+      <c r="E26" s="5">
+        <v>1200000</v>
+      </c>
+      <c r="F26" s="5">
+        <v>2500000</v>
+      </c>
+      <c r="G26" s="5">
+        <v>1200000</v>
+      </c>
+      <c r="H26" s="5">
+        <v>2500000</v>
+      </c>
+      <c r="I26" s="5">
+        <v>1200000</v>
+      </c>
+      <c r="J26" s="5">
+        <v>2500000</v>
+      </c>
+      <c r="K26" s="5">
+        <v>1200000</v>
+      </c>
+      <c r="L26" s="5">
+        <v>2500000</v>
+      </c>
+      <c r="M26" s="5">
+        <v>1200000</v>
+      </c>
+      <c r="N26" s="5">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="17" t="s">
         <v>24</v>
       </c>
       <c r="C27" s="5">
@@ -1783,10 +2440,40 @@
       <c r="D27" s="5">
         <v>310000</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="18" t="s">
+      <c r="E27" s="5">
+        <v>125000</v>
+      </c>
+      <c r="F27" s="5">
+        <v>310000</v>
+      </c>
+      <c r="G27" s="5">
+        <v>125000</v>
+      </c>
+      <c r="H27" s="5">
+        <v>310000</v>
+      </c>
+      <c r="I27" s="5">
+        <v>125000</v>
+      </c>
+      <c r="J27" s="5">
+        <v>310000</v>
+      </c>
+      <c r="K27" s="5">
+        <v>125000</v>
+      </c>
+      <c r="L27" s="5">
+        <v>310000</v>
+      </c>
+      <c r="M27" s="5">
+        <v>125000</v>
+      </c>
+      <c r="N27" s="5">
+        <v>310000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="17" t="s">
         <v>25</v>
       </c>
       <c r="C28" s="5">
@@ -1795,10 +2482,40 @@
       <c r="D28" s="5">
         <v>49000</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="18" t="s">
+      <c r="E28" s="5">
+        <v>20000</v>
+      </c>
+      <c r="F28" s="5">
+        <v>49000</v>
+      </c>
+      <c r="G28" s="5">
+        <v>20000</v>
+      </c>
+      <c r="H28" s="5">
+        <v>49000</v>
+      </c>
+      <c r="I28" s="5">
+        <v>20000</v>
+      </c>
+      <c r="J28" s="5">
+        <v>49000</v>
+      </c>
+      <c r="K28" s="5">
+        <v>20000</v>
+      </c>
+      <c r="L28" s="5">
+        <v>49000</v>
+      </c>
+      <c r="M28" s="5">
+        <v>20000</v>
+      </c>
+      <c r="N28" s="5">
+        <v>49000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="17" t="s">
         <v>26</v>
       </c>
       <c r="C29" s="5">
@@ -1807,10 +2524,40 @@
       <c r="D29" s="5">
         <v>54000</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-      <c r="B30" s="18" t="s">
+      <c r="E29" s="5">
+        <v>25000</v>
+      </c>
+      <c r="F29" s="5">
+        <v>54000</v>
+      </c>
+      <c r="G29" s="5">
+        <v>25000</v>
+      </c>
+      <c r="H29" s="5">
+        <v>54000</v>
+      </c>
+      <c r="I29" s="5">
+        <v>25000</v>
+      </c>
+      <c r="J29" s="5">
+        <v>54000</v>
+      </c>
+      <c r="K29" s="5">
+        <v>25000</v>
+      </c>
+      <c r="L29" s="5">
+        <v>54000</v>
+      </c>
+      <c r="M29" s="5">
+        <v>25000</v>
+      </c>
+      <c r="N29" s="5">
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="17" t="s">
         <v>27</v>
       </c>
       <c r="C30" s="5">
@@ -1819,10 +2566,40 @@
       <c r="D30" s="5">
         <v>59000</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="18" t="s">
+      <c r="E30" s="5">
+        <v>30000</v>
+      </c>
+      <c r="F30" s="5">
+        <v>59000</v>
+      </c>
+      <c r="G30" s="5">
+        <v>30000</v>
+      </c>
+      <c r="H30" s="5">
+        <v>59000</v>
+      </c>
+      <c r="I30" s="5">
+        <v>30000</v>
+      </c>
+      <c r="J30" s="5">
+        <v>59000</v>
+      </c>
+      <c r="K30" s="5">
+        <v>30000</v>
+      </c>
+      <c r="L30" s="5">
+        <v>59000</v>
+      </c>
+      <c r="M30" s="5">
+        <v>30000</v>
+      </c>
+      <c r="N30" s="5">
+        <v>59000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="17" t="s">
         <v>28</v>
       </c>
       <c r="C31" s="5">
@@ -1831,10 +2608,40 @@
       <c r="D31" s="5">
         <v>64000</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="B32" s="18" t="s">
+      <c r="E31" s="5">
+        <v>35000</v>
+      </c>
+      <c r="F31" s="5">
+        <v>64000</v>
+      </c>
+      <c r="G31" s="5">
+        <v>35000</v>
+      </c>
+      <c r="H31" s="5">
+        <v>64000</v>
+      </c>
+      <c r="I31" s="5">
+        <v>35000</v>
+      </c>
+      <c r="J31" s="5">
+        <v>64000</v>
+      </c>
+      <c r="K31" s="5">
+        <v>35000</v>
+      </c>
+      <c r="L31" s="5">
+        <v>64000</v>
+      </c>
+      <c r="M31" s="5">
+        <v>35000</v>
+      </c>
+      <c r="N31" s="5">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="17" t="s">
         <v>29</v>
       </c>
       <c r="C32" s="5">
@@ -1843,10 +2650,40 @@
       <c r="D32" s="5">
         <v>69000</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="B33" s="54" t="s">
+      <c r="E32" s="5">
+        <v>40000</v>
+      </c>
+      <c r="F32" s="5">
+        <v>69000</v>
+      </c>
+      <c r="G32" s="5">
+        <v>40000</v>
+      </c>
+      <c r="H32" s="5">
+        <v>69000</v>
+      </c>
+      <c r="I32" s="5">
+        <v>40000</v>
+      </c>
+      <c r="J32" s="5">
+        <v>69000</v>
+      </c>
+      <c r="K32" s="5">
+        <v>40000</v>
+      </c>
+      <c r="L32" s="5">
+        <v>69000</v>
+      </c>
+      <c r="M32" s="5">
+        <v>40000</v>
+      </c>
+      <c r="N32" s="5">
+        <v>69000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="46" t="s">
         <v>30</v>
       </c>
       <c r="C33" s="5">
@@ -1855,10 +2692,40 @@
       <c r="D33" s="5">
         <v>900000</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="B34" s="54" t="s">
+      <c r="E33" s="5">
+        <v>460000</v>
+      </c>
+      <c r="F33" s="5">
+        <v>900000</v>
+      </c>
+      <c r="G33" s="5">
+        <v>460000</v>
+      </c>
+      <c r="H33" s="5">
+        <v>900000</v>
+      </c>
+      <c r="I33" s="5">
+        <v>460000</v>
+      </c>
+      <c r="J33" s="5">
+        <v>900000</v>
+      </c>
+      <c r="K33" s="5">
+        <v>460000</v>
+      </c>
+      <c r="L33" s="5">
+        <v>900000</v>
+      </c>
+      <c r="M33" s="5">
+        <v>460000</v>
+      </c>
+      <c r="N33" s="5">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="46" t="s">
         <v>31</v>
       </c>
       <c r="C34" s="5">
@@ -1867,24 +2734,94 @@
       <c r="D34" s="5">
         <v>23000</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="21"/>
+      <c r="E34" s="5">
+        <v>10000</v>
+      </c>
+      <c r="F34" s="5">
+        <v>23000</v>
+      </c>
+      <c r="G34" s="5">
+        <v>10000</v>
+      </c>
+      <c r="H34" s="5">
+        <v>23000</v>
+      </c>
+      <c r="I34" s="5">
+        <v>10000</v>
+      </c>
+      <c r="J34" s="5">
+        <v>23000</v>
+      </c>
+      <c r="K34" s="5">
+        <v>10000</v>
+      </c>
+      <c r="L34" s="5">
+        <v>23000</v>
+      </c>
+      <c r="M34" s="5">
+        <v>10000</v>
+      </c>
+      <c r="N34" s="5">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="20"/>
       <c r="B35" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="35">
+      <c r="C35" s="34">
         <f>SUM(C24:C34)</f>
         <v>3145000</v>
       </c>
-      <c r="D35" s="35">
+      <c r="D35" s="34">
         <f>SUM(D24:D34)</f>
         <v>6728000</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="18" t="s">
+      <c r="E35" s="34">
+        <f>SUM(E24:E34)</f>
+        <v>3145000</v>
+      </c>
+      <c r="F35" s="34">
+        <f>SUM(F24:F34)</f>
+        <v>6728000</v>
+      </c>
+      <c r="G35" s="34">
+        <f>SUM(G24:G34)</f>
+        <v>3145000</v>
+      </c>
+      <c r="H35" s="34">
+        <f>SUM(H24:H34)</f>
+        <v>6728000</v>
+      </c>
+      <c r="I35" s="34">
+        <f>SUM(I24:I34)</f>
+        <v>3145000</v>
+      </c>
+      <c r="J35" s="34">
+        <f>SUM(J24:J34)</f>
+        <v>6728000</v>
+      </c>
+      <c r="K35" s="34">
+        <f>SUM(K24:K34)</f>
+        <v>3145000</v>
+      </c>
+      <c r="L35" s="34">
+        <f>SUM(L24:L34)</f>
+        <v>6728000</v>
+      </c>
+      <c r="M35" s="34">
+        <f>SUM(M24:M34)</f>
+        <v>3145000</v>
+      </c>
+      <c r="N35" s="34">
+        <f>SUM(N24:N34)</f>
+        <v>6728000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="17" t="s">
         <v>33</v>
       </c>
       <c r="C36" s="5">
@@ -1893,10 +2830,40 @@
       <c r="D36" s="5">
         <v>435000</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="18" t="s">
+      <c r="E36" s="5">
+        <v>200000</v>
+      </c>
+      <c r="F36" s="5">
+        <v>435000</v>
+      </c>
+      <c r="G36" s="5">
+        <v>200000</v>
+      </c>
+      <c r="H36" s="5">
+        <v>435000</v>
+      </c>
+      <c r="I36" s="5">
+        <v>200000</v>
+      </c>
+      <c r="J36" s="5">
+        <v>435000</v>
+      </c>
+      <c r="K36" s="5">
+        <v>200000</v>
+      </c>
+      <c r="L36" s="5">
+        <v>435000</v>
+      </c>
+      <c r="M36" s="5">
+        <v>200000</v>
+      </c>
+      <c r="N36" s="5">
+        <v>435000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="17" t="s">
         <v>34</v>
       </c>
       <c r="C37" s="5">
@@ -1905,10 +2872,40 @@
       <c r="D37" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-      <c r="B38" s="18" t="s">
+      <c r="E37" s="5">
+        <v>0</v>
+      </c>
+      <c r="F37" s="5">
+        <v>0</v>
+      </c>
+      <c r="G37" s="5">
+        <v>0</v>
+      </c>
+      <c r="H37" s="5">
+        <v>0</v>
+      </c>
+      <c r="I37" s="5">
+        <v>0</v>
+      </c>
+      <c r="J37" s="5">
+        <v>0</v>
+      </c>
+      <c r="K37" s="5">
+        <v>0</v>
+      </c>
+      <c r="L37" s="5">
+        <v>0</v>
+      </c>
+      <c r="M37" s="5">
+        <v>0</v>
+      </c>
+      <c r="N37" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="17" t="s">
         <v>35</v>
       </c>
       <c r="C38" s="5">
@@ -1917,10 +2914,40 @@
       <c r="D38" s="5">
         <v>650000</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="B39" s="18" t="s">
+      <c r="E38" s="5">
+        <v>345000</v>
+      </c>
+      <c r="F38" s="5">
+        <v>650000</v>
+      </c>
+      <c r="G38" s="5">
+        <v>345000</v>
+      </c>
+      <c r="H38" s="5">
+        <v>650000</v>
+      </c>
+      <c r="I38" s="5">
+        <v>345000</v>
+      </c>
+      <c r="J38" s="5">
+        <v>650000</v>
+      </c>
+      <c r="K38" s="5">
+        <v>345000</v>
+      </c>
+      <c r="L38" s="5">
+        <v>650000</v>
+      </c>
+      <c r="M38" s="5">
+        <v>345000</v>
+      </c>
+      <c r="N38" s="5">
+        <v>650000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+      <c r="B39" s="17" t="s">
         <v>36</v>
       </c>
       <c r="C39" s="5">
@@ -1929,10 +2956,40 @@
       <c r="D39" s="5">
         <v>300000</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
-      <c r="B40" s="18" t="s">
+      <c r="E39" s="5">
+        <v>185000</v>
+      </c>
+      <c r="F39" s="5">
+        <v>300000</v>
+      </c>
+      <c r="G39" s="5">
+        <v>185000</v>
+      </c>
+      <c r="H39" s="5">
+        <v>300000</v>
+      </c>
+      <c r="I39" s="5">
+        <v>185000</v>
+      </c>
+      <c r="J39" s="5">
+        <v>300000</v>
+      </c>
+      <c r="K39" s="5">
+        <v>185000</v>
+      </c>
+      <c r="L39" s="5">
+        <v>300000</v>
+      </c>
+      <c r="M39" s="5">
+        <v>185000</v>
+      </c>
+      <c r="N39" s="5">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+      <c r="B40" s="17" t="s">
         <v>37</v>
       </c>
       <c r="C40" s="5">
@@ -1941,57 +2998,216 @@
       <c r="D40" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="21"/>
+      <c r="E40" s="5">
+        <v>46000</v>
+      </c>
+      <c r="F40" s="5">
+        <v>0</v>
+      </c>
+      <c r="G40" s="5">
+        <v>46000</v>
+      </c>
+      <c r="H40" s="5">
+        <v>0</v>
+      </c>
+      <c r="I40" s="5">
+        <v>46000</v>
+      </c>
+      <c r="J40" s="5">
+        <v>0</v>
+      </c>
+      <c r="K40" s="5">
+        <v>46000</v>
+      </c>
+      <c r="L40" s="5">
+        <v>0</v>
+      </c>
+      <c r="M40" s="5">
+        <v>46000</v>
+      </c>
+      <c r="N40" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="20"/>
       <c r="B41" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="35">
+      <c r="C41" s="34">
         <f>SUM(C36:C40)</f>
         <v>776000</v>
       </c>
-      <c r="D41" s="35">
+      <c r="D41" s="34">
         <f>SUM(D36:D40)</f>
         <v>1385000</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="21"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="36">
+      <c r="E41" s="34">
+        <f>SUM(E36:E40)</f>
+        <v>776000</v>
+      </c>
+      <c r="F41" s="34">
+        <f>SUM(F36:F40)</f>
+        <v>1385000</v>
+      </c>
+      <c r="G41" s="34">
+        <f>SUM(G36:G40)</f>
+        <v>776000</v>
+      </c>
+      <c r="H41" s="34">
+        <f>SUM(H36:H40)</f>
+        <v>1385000</v>
+      </c>
+      <c r="I41" s="34">
+        <f>SUM(I36:I40)</f>
+        <v>776000</v>
+      </c>
+      <c r="J41" s="34">
+        <f>SUM(J36:J40)</f>
+        <v>1385000</v>
+      </c>
+      <c r="K41" s="34">
+        <f>SUM(K36:K40)</f>
+        <v>776000</v>
+      </c>
+      <c r="L41" s="34">
+        <f>SUM(L36:L40)</f>
+        <v>1385000</v>
+      </c>
+      <c r="M41" s="34">
+        <f>SUM(M36:M40)</f>
+        <v>776000</v>
+      </c>
+      <c r="N41" s="34">
+        <f>SUM(N36:N40)</f>
+        <v>1385000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="20"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="35">
         <f>SUM(C41+C35+C23+C11)</f>
         <v>97128544</v>
       </c>
-      <c r="D42" s="36">
+      <c r="D42" s="35">
         <f>SUM(D41+D35+D23+D11)</f>
         <v>210448000</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="8">
+      <c r="E42" s="35">
+        <f>SUM(E41+E35+E23+E11)</f>
+        <v>97128544</v>
+      </c>
+      <c r="F42" s="35">
+        <f>SUM(F41+F35+F23+F11)</f>
+        <v>210448000</v>
+      </c>
+      <c r="G42" s="35">
+        <f>SUM(G41+G35+G23+G11)</f>
+        <v>97128544</v>
+      </c>
+      <c r="H42" s="35">
+        <f>SUM(H41+H35+H23+H11)</f>
+        <v>210448000</v>
+      </c>
+      <c r="I42" s="35">
+        <f>SUM(I41+I35+I23+I11)</f>
+        <v>97128544</v>
+      </c>
+      <c r="J42" s="35">
+        <f>SUM(J41+J35+J23+J11)</f>
+        <v>210448000</v>
+      </c>
+      <c r="K42" s="35">
+        <f>SUM(K41+K35+K23+K11)</f>
+        <v>97128544</v>
+      </c>
+      <c r="L42" s="35">
+        <f>SUM(L41+L35+L23+L11)</f>
+        <v>210448000</v>
+      </c>
+      <c r="M42" s="35">
+        <f>SUM(M41+M35+M23+M11)</f>
+        <v>97128544</v>
+      </c>
+      <c r="N42" s="35">
+        <f>SUM(N41+N35+N23+N11)</f>
+        <v>210448000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="7">
         <f>C42</f>
         <v>97128544</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="7">
         <f>D42</f>
         <v>210448000</v>
       </c>
-      <c r="E43" s="6"/>
-    </row>
-    <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="21"/>
-      <c r="B44" s="24" t="s">
+      <c r="E43" s="7">
+        <f>E42</f>
+        <v>97128544</v>
+      </c>
+      <c r="F43" s="7">
+        <f>F42</f>
+        <v>210448000</v>
+      </c>
+      <c r="G43" s="7">
+        <f>G42</f>
+        <v>97128544</v>
+      </c>
+      <c r="H43" s="7">
+        <f>H42</f>
+        <v>210448000</v>
+      </c>
+      <c r="I43" s="7">
+        <f>I42</f>
+        <v>97128544</v>
+      </c>
+      <c r="J43" s="7">
+        <f>J42</f>
+        <v>210448000</v>
+      </c>
+      <c r="K43" s="7">
+        <f>K42</f>
+        <v>97128544</v>
+      </c>
+      <c r="L43" s="7">
+        <f>L42</f>
+        <v>210448000</v>
+      </c>
+      <c r="M43" s="7">
+        <f>M42</f>
+        <v>97128544</v>
+      </c>
+      <c r="N43" s="7">
+        <f>N42</f>
+        <v>210448000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="20"/>
+      <c r="B44" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-    </row>
-    <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
-      <c r="B45" s="18" t="s">
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="34"/>
+      <c r="K44" s="34"/>
+      <c r="L44" s="34"/>
+      <c r="M44" s="34"/>
+      <c r="N44" s="34"/>
+    </row>
+    <row r="45" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="6"/>
+      <c r="B45" s="17" t="s">
         <v>40</v>
       </c>
       <c r="C45" s="5">
@@ -2000,10 +3216,40 @@
       <c r="D45" s="5">
         <v>123000</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="7"/>
-      <c r="B46" s="18" t="s">
+      <c r="E45" s="5">
+        <v>50000</v>
+      </c>
+      <c r="F45" s="5">
+        <v>123000</v>
+      </c>
+      <c r="G45" s="5">
+        <v>50000</v>
+      </c>
+      <c r="H45" s="5">
+        <v>123000</v>
+      </c>
+      <c r="I45" s="5">
+        <v>50000</v>
+      </c>
+      <c r="J45" s="5">
+        <v>123000</v>
+      </c>
+      <c r="K45" s="5">
+        <v>50000</v>
+      </c>
+      <c r="L45" s="5">
+        <v>123000</v>
+      </c>
+      <c r="M45" s="5">
+        <v>50000</v>
+      </c>
+      <c r="N45" s="5">
+        <v>123000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="6"/>
+      <c r="B46" s="17" t="s">
         <v>41</v>
       </c>
       <c r="C46" s="5">
@@ -2012,10 +3258,40 @@
       <c r="D46" s="5">
         <v>125000</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="7"/>
-      <c r="B47" s="18" t="s">
+      <c r="E46" s="5">
+        <v>56000</v>
+      </c>
+      <c r="F46" s="5">
+        <v>125000</v>
+      </c>
+      <c r="G46" s="5">
+        <v>56000</v>
+      </c>
+      <c r="H46" s="5">
+        <v>125000</v>
+      </c>
+      <c r="I46" s="5">
+        <v>56000</v>
+      </c>
+      <c r="J46" s="5">
+        <v>125000</v>
+      </c>
+      <c r="K46" s="5">
+        <v>56000</v>
+      </c>
+      <c r="L46" s="5">
+        <v>125000</v>
+      </c>
+      <c r="M46" s="5">
+        <v>56000</v>
+      </c>
+      <c r="N46" s="5">
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="6"/>
+      <c r="B47" s="17" t="s">
         <v>42</v>
       </c>
       <c r="C47" s="5">
@@ -2024,10 +3300,40 @@
       <c r="D47" s="5">
         <v>127000</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
-      <c r="B48" s="18" t="s">
+      <c r="E47" s="5">
+        <v>62000</v>
+      </c>
+      <c r="F47" s="5">
+        <v>127000</v>
+      </c>
+      <c r="G47" s="5">
+        <v>62000</v>
+      </c>
+      <c r="H47" s="5">
+        <v>127000</v>
+      </c>
+      <c r="I47" s="5">
+        <v>62000</v>
+      </c>
+      <c r="J47" s="5">
+        <v>127000</v>
+      </c>
+      <c r="K47" s="5">
+        <v>62000</v>
+      </c>
+      <c r="L47" s="5">
+        <v>127000</v>
+      </c>
+      <c r="M47" s="5">
+        <v>62000</v>
+      </c>
+      <c r="N47" s="5">
+        <v>127000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="6"/>
+      <c r="B48" s="17" t="s">
         <v>43</v>
       </c>
       <c r="C48" s="5">
@@ -2036,10 +3342,40 @@
       <c r="D48" s="5">
         <v>129000</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="7"/>
-      <c r="B49" s="18" t="s">
+      <c r="E48" s="5">
+        <v>68000</v>
+      </c>
+      <c r="F48" s="5">
+        <v>129000</v>
+      </c>
+      <c r="G48" s="5">
+        <v>68000</v>
+      </c>
+      <c r="H48" s="5">
+        <v>129000</v>
+      </c>
+      <c r="I48" s="5">
+        <v>68000</v>
+      </c>
+      <c r="J48" s="5">
+        <v>129000</v>
+      </c>
+      <c r="K48" s="5">
+        <v>68000</v>
+      </c>
+      <c r="L48" s="5">
+        <v>129000</v>
+      </c>
+      <c r="M48" s="5">
+        <v>68000</v>
+      </c>
+      <c r="N48" s="5">
+        <v>129000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="6"/>
+      <c r="B49" s="17" t="s">
         <v>44</v>
       </c>
       <c r="C49" s="5">
@@ -2048,10 +3384,40 @@
       <c r="D49" s="5">
         <v>131000</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="7"/>
-      <c r="B50" s="18" t="s">
+      <c r="E49" s="5">
+        <v>74000</v>
+      </c>
+      <c r="F49" s="5">
+        <v>131000</v>
+      </c>
+      <c r="G49" s="5">
+        <v>74000</v>
+      </c>
+      <c r="H49" s="5">
+        <v>131000</v>
+      </c>
+      <c r="I49" s="5">
+        <v>74000</v>
+      </c>
+      <c r="J49" s="5">
+        <v>131000</v>
+      </c>
+      <c r="K49" s="5">
+        <v>74000</v>
+      </c>
+      <c r="L49" s="5">
+        <v>131000</v>
+      </c>
+      <c r="M49" s="5">
+        <v>74000</v>
+      </c>
+      <c r="N49" s="5">
+        <v>131000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="6"/>
+      <c r="B50" s="17" t="s">
         <v>45</v>
       </c>
       <c r="C50" s="5">
@@ -2060,24 +3426,94 @@
       <c r="D50" s="5">
         <v>133000</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="21"/>
+      <c r="E50" s="5">
+        <v>80000</v>
+      </c>
+      <c r="F50" s="5">
+        <v>133000</v>
+      </c>
+      <c r="G50" s="5">
+        <v>80000</v>
+      </c>
+      <c r="H50" s="5">
+        <v>133000</v>
+      </c>
+      <c r="I50" s="5">
+        <v>80000</v>
+      </c>
+      <c r="J50" s="5">
+        <v>133000</v>
+      </c>
+      <c r="K50" s="5">
+        <v>80000</v>
+      </c>
+      <c r="L50" s="5">
+        <v>133000</v>
+      </c>
+      <c r="M50" s="5">
+        <v>80000</v>
+      </c>
+      <c r="N50" s="5">
+        <v>133000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="20"/>
       <c r="B51" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C51" s="10">
+      <c r="C51" s="9">
         <f>SUM(C45:C50)</f>
         <v>390000</v>
       </c>
-      <c r="D51" s="10">
+      <c r="D51" s="9">
         <f>SUM(D45:D50)</f>
         <v>768000</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="7"/>
-      <c r="B52" s="18" t="s">
+      <c r="E51" s="9">
+        <f>SUM(E45:E50)</f>
+        <v>390000</v>
+      </c>
+      <c r="F51" s="9">
+        <f>SUM(F45:F50)</f>
+        <v>768000</v>
+      </c>
+      <c r="G51" s="9">
+        <f>SUM(G45:G50)</f>
+        <v>390000</v>
+      </c>
+      <c r="H51" s="9">
+        <f>SUM(H45:H50)</f>
+        <v>768000</v>
+      </c>
+      <c r="I51" s="9">
+        <f>SUM(I45:I50)</f>
+        <v>390000</v>
+      </c>
+      <c r="J51" s="9">
+        <f>SUM(J45:J50)</f>
+        <v>768000</v>
+      </c>
+      <c r="K51" s="9">
+        <f>SUM(K45:K50)</f>
+        <v>390000</v>
+      </c>
+      <c r="L51" s="9">
+        <f>SUM(L45:L50)</f>
+        <v>768000</v>
+      </c>
+      <c r="M51" s="9">
+        <f>SUM(M45:M50)</f>
+        <v>390000</v>
+      </c>
+      <c r="N51" s="9">
+        <f>SUM(N45:N50)</f>
+        <v>768000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="6"/>
+      <c r="B52" s="17" t="s">
         <v>47</v>
       </c>
       <c r="C52" s="5">
@@ -2086,10 +3522,40 @@
       <c r="D52" s="5">
         <v>30000</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="7"/>
-      <c r="B53" s="18" t="s">
+      <c r="E52" s="5">
+        <v>15000</v>
+      </c>
+      <c r="F52" s="5">
+        <v>30000</v>
+      </c>
+      <c r="G52" s="5">
+        <v>15000</v>
+      </c>
+      <c r="H52" s="5">
+        <v>30000</v>
+      </c>
+      <c r="I52" s="5">
+        <v>15000</v>
+      </c>
+      <c r="J52" s="5">
+        <v>30000</v>
+      </c>
+      <c r="K52" s="5">
+        <v>15000</v>
+      </c>
+      <c r="L52" s="5">
+        <v>30000</v>
+      </c>
+      <c r="M52" s="5">
+        <v>15000</v>
+      </c>
+      <c r="N52" s="5">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="6"/>
+      <c r="B53" s="17" t="s">
         <v>48</v>
       </c>
       <c r="C53" s="5">
@@ -2098,106 +3564,366 @@
       <c r="D53" s="5">
         <v>26000</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="11"/>
+      <c r="E53" s="5">
+        <v>12550</v>
+      </c>
+      <c r="F53" s="5">
+        <v>26000</v>
+      </c>
+      <c r="G53" s="5">
+        <v>12550</v>
+      </c>
+      <c r="H53" s="5">
+        <v>26000</v>
+      </c>
+      <c r="I53" s="5">
+        <v>12550</v>
+      </c>
+      <c r="J53" s="5">
+        <v>26000</v>
+      </c>
+      <c r="K53" s="5">
+        <v>12550</v>
+      </c>
+      <c r="L53" s="5">
+        <v>26000</v>
+      </c>
+      <c r="M53" s="5">
+        <v>12550</v>
+      </c>
+      <c r="N53" s="5">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="10"/>
       <c r="B54" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C54" s="35">
+      <c r="C54" s="34">
         <f>SUM(C52:C53)</f>
         <v>27550</v>
       </c>
-      <c r="D54" s="35">
+      <c r="D54" s="34">
         <f>SUM(D52:D53)</f>
         <v>56000</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="11"/>
+      <c r="E54" s="34">
+        <f>SUM(E52:E53)</f>
+        <v>27550</v>
+      </c>
+      <c r="F54" s="34">
+        <f>SUM(F52:F53)</f>
+        <v>56000</v>
+      </c>
+      <c r="G54" s="34">
+        <f>SUM(G52:G53)</f>
+        <v>27550</v>
+      </c>
+      <c r="H54" s="34">
+        <f>SUM(H52:H53)</f>
+        <v>56000</v>
+      </c>
+      <c r="I54" s="34">
+        <f>SUM(I52:I53)</f>
+        <v>27550</v>
+      </c>
+      <c r="J54" s="34">
+        <f>SUM(J52:J53)</f>
+        <v>56000</v>
+      </c>
+      <c r="K54" s="34">
+        <f>SUM(K52:K53)</f>
+        <v>27550</v>
+      </c>
+      <c r="L54" s="34">
+        <f>SUM(L52:L53)</f>
+        <v>56000</v>
+      </c>
+      <c r="M54" s="34">
+        <f>SUM(M52:M53)</f>
+        <v>27550</v>
+      </c>
+      <c r="N54" s="34">
+        <f>SUM(N52:N53)</f>
+        <v>56000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="10"/>
       <c r="B55" s="3"/>
-      <c r="C55" s="36">
+      <c r="C55" s="35">
         <f>SUM(C51+C54)</f>
         <v>417550</v>
       </c>
-      <c r="D55" s="36">
+      <c r="D55" s="35">
         <f>SUM(D51+D54)</f>
         <v>824000</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="11"/>
+      <c r="E55" s="35">
+        <f>SUM(E51+E54)</f>
+        <v>417550</v>
+      </c>
+      <c r="F55" s="35">
+        <f>SUM(F51+F54)</f>
+        <v>824000</v>
+      </c>
+      <c r="G55" s="35">
+        <f>SUM(G51+G54)</f>
+        <v>417550</v>
+      </c>
+      <c r="H55" s="35">
+        <f>SUM(H51+H54)</f>
+        <v>824000</v>
+      </c>
+      <c r="I55" s="35">
+        <f>SUM(I51+I54)</f>
+        <v>417550</v>
+      </c>
+      <c r="J55" s="35">
+        <f>SUM(J51+J54)</f>
+        <v>824000</v>
+      </c>
+      <c r="K55" s="35">
+        <f>SUM(K51+K54)</f>
+        <v>417550</v>
+      </c>
+      <c r="L55" s="35">
+        <f>SUM(L51+L54)</f>
+        <v>824000</v>
+      </c>
+      <c r="M55" s="35">
+        <f>SUM(M51+M54)</f>
+        <v>417550</v>
+      </c>
+      <c r="N55" s="35">
+        <f>SUM(N51+N54)</f>
+        <v>824000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="10"/>
       <c r="B56" s="3"/>
-      <c r="C56" s="36"/>
-      <c r="D56" s="36"/>
-    </row>
-    <row r="57" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A57" s="26"/>
-      <c r="B57" s="9" t="s">
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="35"/>
+      <c r="J56" s="35"/>
+      <c r="K56" s="35"/>
+      <c r="L56" s="35"/>
+      <c r="M56" s="35"/>
+      <c r="N56" s="35"/>
+    </row>
+    <row r="57" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A57" s="25"/>
+      <c r="B57" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C57" s="36">
+      <c r="C57" s="35">
         <f>SUM(C42+C55)</f>
         <v>97546094</v>
       </c>
-      <c r="D57" s="36">
+      <c r="D57" s="35">
         <f>SUM(D42+D55)</f>
         <v>211272000</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A58" s="26"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="36"/>
-      <c r="D58" s="36"/>
-    </row>
-    <row r="59" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="25"/>
-      <c r="B59" s="23" t="s">
+      <c r="E57" s="35">
+        <f>SUM(E42+E55)</f>
+        <v>97546094</v>
+      </c>
+      <c r="F57" s="35">
+        <f>SUM(F42+F55)</f>
+        <v>211272000</v>
+      </c>
+      <c r="G57" s="35">
+        <f>SUM(G42+G55)</f>
+        <v>97546094</v>
+      </c>
+      <c r="H57" s="35">
+        <f>SUM(H42+H55)</f>
+        <v>211272000</v>
+      </c>
+      <c r="I57" s="35">
+        <f>SUM(I42+I55)</f>
+        <v>97546094</v>
+      </c>
+      <c r="J57" s="35">
+        <f>SUM(J42+J55)</f>
+        <v>211272000</v>
+      </c>
+      <c r="K57" s="35">
+        <f>SUM(K42+K55)</f>
+        <v>97546094</v>
+      </c>
+      <c r="L57" s="35">
+        <f>SUM(L42+L55)</f>
+        <v>211272000</v>
+      </c>
+      <c r="M57" s="35">
+        <f>SUM(M42+M55)</f>
+        <v>97546094</v>
+      </c>
+      <c r="N57" s="35">
+        <f>SUM(N42+N55)</f>
+        <v>211272000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A58" s="25"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="35"/>
+      <c r="E58" s="35"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="35"/>
+      <c r="I58" s="35"/>
+      <c r="J58" s="35"/>
+      <c r="K58" s="35"/>
+      <c r="L58" s="35"/>
+      <c r="M58" s="35"/>
+      <c r="N58" s="35"/>
+    </row>
+    <row r="59" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="24"/>
+      <c r="B59" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C59" s="36"/>
-      <c r="D59" s="36"/>
-    </row>
-    <row r="60" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A60" s="26"/>
-      <c r="B60" s="43" t="s">
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="35"/>
+      <c r="G59" s="35"/>
+      <c r="H59" s="35"/>
+      <c r="I59" s="35"/>
+      <c r="J59" s="35"/>
+      <c r="K59" s="35"/>
+      <c r="L59" s="35"/>
+      <c r="M59" s="35"/>
+      <c r="N59" s="35"/>
+    </row>
+    <row r="60" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A60" s="25"/>
+      <c r="B60" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="C60" s="36">
+      <c r="C60" s="35">
         <v>100000</v>
       </c>
-      <c r="D60" s="36">
+      <c r="D60" s="35">
         <v>200000</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A61" s="26"/>
-      <c r="B61" s="43" t="s">
+      <c r="E60" s="35">
+        <v>100000</v>
+      </c>
+      <c r="F60" s="35">
+        <v>200000</v>
+      </c>
+      <c r="G60" s="35">
+        <v>100000</v>
+      </c>
+      <c r="H60" s="35">
+        <v>200000</v>
+      </c>
+      <c r="I60" s="35">
+        <v>100000</v>
+      </c>
+      <c r="J60" s="35">
+        <v>200000</v>
+      </c>
+      <c r="K60" s="35">
+        <v>100000</v>
+      </c>
+      <c r="L60" s="35">
+        <v>200000</v>
+      </c>
+      <c r="M60" s="35">
+        <v>100000</v>
+      </c>
+      <c r="N60" s="35">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A61" s="25"/>
+      <c r="B61" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="C61" s="36">
+      <c r="C61" s="35">
         <v>20000</v>
       </c>
-      <c r="D61" s="36">
+      <c r="D61" s="35">
         <v>34000</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A62" s="26"/>
-      <c r="B62" s="9"/>
-      <c r="C62" s="36"/>
-      <c r="D62" s="36"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="51"/>
-      <c r="B63" s="51"/>
-      <c r="C63" s="27"/>
-      <c r="D63" s="22"/>
-    </row>
-    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="11"/>
-      <c r="B64" s="13" t="s">
+      <c r="E61" s="35">
+        <v>20000</v>
+      </c>
+      <c r="F61" s="35">
+        <v>34000</v>
+      </c>
+      <c r="G61" s="35">
+        <v>20000</v>
+      </c>
+      <c r="H61" s="35">
+        <v>34000</v>
+      </c>
+      <c r="I61" s="35">
+        <v>20000</v>
+      </c>
+      <c r="J61" s="35">
+        <v>34000</v>
+      </c>
+      <c r="K61" s="35">
+        <v>20000</v>
+      </c>
+      <c r="L61" s="35">
+        <v>34000</v>
+      </c>
+      <c r="M61" s="35">
+        <v>20000</v>
+      </c>
+      <c r="N61" s="35">
+        <v>34000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A62" s="25"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="35"/>
+      <c r="F62" s="35"/>
+      <c r="G62" s="35"/>
+      <c r="H62" s="35"/>
+      <c r="I62" s="35"/>
+      <c r="J62" s="35"/>
+      <c r="K62" s="35"/>
+      <c r="L62" s="35"/>
+      <c r="M62" s="35"/>
+      <c r="N62" s="35"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" s="53"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="26"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="26"/>
+      <c r="J63" s="21"/>
+      <c r="K63" s="26"/>
+      <c r="L63" s="21"/>
+      <c r="M63" s="26"/>
+      <c r="N63" s="21"/>
+    </row>
+    <row r="64" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A64" s="10"/>
+      <c r="B64" s="12" t="s">
         <v>2</v>
       </c>
       <c r="C64" s="2" t="s">
@@ -2206,86 +3932,266 @@
       <c r="D64" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="28"/>
-      <c r="B65" s="28"/>
-      <c r="C65" s="17"/>
-      <c r="D65" s="17"/>
-    </row>
-    <row r="66" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="28"/>
-      <c r="B66" s="28"/>
-      <c r="C66" s="17"/>
-      <c r="D66" s="17"/>
-    </row>
-    <row r="67" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="28"/>
-      <c r="B67" s="28"/>
-      <c r="C67" s="17"/>
-      <c r="D67" s="17"/>
-    </row>
-    <row r="68" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="12" t="s">
+      <c r="E64" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N64" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="27"/>
+      <c r="B65" s="27"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="16"/>
+      <c r="I65" s="16"/>
+      <c r="J65" s="16"/>
+      <c r="K65" s="16"/>
+      <c r="L65" s="16"/>
+      <c r="M65" s="16"/>
+      <c r="N65" s="16"/>
+    </row>
+    <row r="66" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="27"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="16"/>
+      <c r="I66" s="16"/>
+      <c r="J66" s="16"/>
+      <c r="K66" s="16"/>
+      <c r="L66" s="16"/>
+      <c r="M66" s="16"/>
+      <c r="N66" s="16"/>
+    </row>
+    <row r="67" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="27"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16"/>
+      <c r="H67" s="16"/>
+      <c r="I67" s="16"/>
+      <c r="J67" s="16"/>
+      <c r="K67" s="16"/>
+      <c r="L67" s="16"/>
+      <c r="M67" s="16"/>
+      <c r="N67" s="16"/>
+    </row>
+    <row r="68" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B68" s="12" t="s">
+      <c r="B68" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C68" s="25"/>
-      <c r="D68" s="28"/>
-    </row>
-    <row r="69" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="11"/>
-      <c r="B69" s="19" t="s">
+      <c r="C68" s="24"/>
+      <c r="D68" s="27"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="44"/>
+      <c r="G68" s="24"/>
+      <c r="H68" s="44"/>
+      <c r="I68" s="24"/>
+      <c r="J68" s="44"/>
+      <c r="K68" s="24"/>
+      <c r="L68" s="44"/>
+      <c r="M68" s="24"/>
+      <c r="N68" s="44"/>
+    </row>
+    <row r="69" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A69" s="10"/>
+      <c r="B69" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C69" s="35">
+      <c r="C69" s="34">
         <v>22000</v>
       </c>
-      <c r="D69" s="35">
+      <c r="D69" s="34">
         <v>46000</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="11"/>
-      <c r="B70" s="19" t="s">
+      <c r="E69" s="34">
+        <v>22000</v>
+      </c>
+      <c r="F69" s="34">
+        <v>46000</v>
+      </c>
+      <c r="G69" s="34">
+        <v>22000</v>
+      </c>
+      <c r="H69" s="34">
+        <v>46000</v>
+      </c>
+      <c r="I69" s="34">
+        <v>22000</v>
+      </c>
+      <c r="J69" s="34">
+        <v>46000</v>
+      </c>
+      <c r="K69" s="34">
+        <v>22000</v>
+      </c>
+      <c r="L69" s="34">
+        <v>46000</v>
+      </c>
+      <c r="M69" s="34">
+        <v>22000</v>
+      </c>
+      <c r="N69" s="34">
+        <v>46000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A70" s="10"/>
+      <c r="B70" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C70" s="35">
-        <v>0</v>
-      </c>
-      <c r="D70" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="11"/>
-      <c r="B71" s="19" t="s">
+      <c r="C70" s="34">
+        <v>0</v>
+      </c>
+      <c r="D70" s="34">
+        <v>0</v>
+      </c>
+      <c r="E70" s="34">
+        <v>0</v>
+      </c>
+      <c r="F70" s="34">
+        <v>0</v>
+      </c>
+      <c r="G70" s="34">
+        <v>0</v>
+      </c>
+      <c r="H70" s="34">
+        <v>0</v>
+      </c>
+      <c r="I70" s="34">
+        <v>0</v>
+      </c>
+      <c r="J70" s="34">
+        <v>0</v>
+      </c>
+      <c r="K70" s="34">
+        <v>0</v>
+      </c>
+      <c r="L70" s="34">
+        <v>0</v>
+      </c>
+      <c r="M70" s="34">
+        <v>0</v>
+      </c>
+      <c r="N70" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="10"/>
+      <c r="B71" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C71" s="35">
-        <v>0</v>
-      </c>
-      <c r="D71" s="15" t="s">
+      <c r="C71" s="34">
+        <v>0</v>
+      </c>
+      <c r="D71" s="14" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="28"/>
-      <c r="B72" s="28"/>
-      <c r="C72" s="17"/>
-      <c r="D72" s="17"/>
-    </row>
-    <row r="73" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="28"/>
-      <c r="B73" s="28"/>
-      <c r="C73" s="17"/>
-      <c r="D73" s="17"/>
-    </row>
-    <row r="74" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="7"/>
-      <c r="B74" s="18" t="s">
+      <c r="E71" s="34">
+        <v>0</v>
+      </c>
+      <c r="F71" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="G71" s="34">
+        <v>0</v>
+      </c>
+      <c r="H71" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="I71" s="34">
+        <v>0</v>
+      </c>
+      <c r="J71" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="K71" s="34">
+        <v>0</v>
+      </c>
+      <c r="L71" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="M71" s="34">
+        <v>0</v>
+      </c>
+      <c r="N71" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="27"/>
+      <c r="B72" s="27"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="16"/>
+      <c r="J72" s="16"/>
+      <c r="K72" s="16"/>
+      <c r="L72" s="16"/>
+      <c r="M72" s="16"/>
+      <c r="N72" s="16"/>
+    </row>
+    <row r="73" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="27"/>
+      <c r="B73" s="27"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="16"/>
+      <c r="J73" s="16"/>
+      <c r="K73" s="16"/>
+      <c r="L73" s="16"/>
+      <c r="M73" s="16"/>
+      <c r="N73" s="16"/>
+    </row>
+    <row r="74" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="6"/>
+      <c r="B74" s="17" t="s">
         <v>59</v>
       </c>
       <c r="C74" s="5">
@@ -2294,10 +4200,40 @@
       <c r="D74" s="5">
         <v>500</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="7"/>
-      <c r="B75" s="18" t="s">
+      <c r="E74" s="5">
+        <v>200</v>
+      </c>
+      <c r="F74" s="5">
+        <v>500</v>
+      </c>
+      <c r="G74" s="5">
+        <v>200</v>
+      </c>
+      <c r="H74" s="5">
+        <v>500</v>
+      </c>
+      <c r="I74" s="5">
+        <v>200</v>
+      </c>
+      <c r="J74" s="5">
+        <v>500</v>
+      </c>
+      <c r="K74" s="5">
+        <v>200</v>
+      </c>
+      <c r="L74" s="5">
+        <v>500</v>
+      </c>
+      <c r="M74" s="5">
+        <v>200</v>
+      </c>
+      <c r="N74" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="6"/>
+      <c r="B75" s="17" t="s">
         <v>60</v>
       </c>
       <c r="C75" s="5">
@@ -2306,90 +4242,300 @@
       <c r="D75" s="5">
         <v>300</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="28"/>
-      <c r="B76" s="28"/>
-      <c r="C76" s="17"/>
-      <c r="D76" s="17"/>
-    </row>
-    <row r="77" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="28"/>
-      <c r="B77" s="28"/>
-      <c r="C77" s="17"/>
-      <c r="D77" s="17"/>
-    </row>
-    <row r="78" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="11"/>
-      <c r="B78" s="19" t="s">
+      <c r="E75" s="5">
+        <v>100</v>
+      </c>
+      <c r="F75" s="5">
+        <v>300</v>
+      </c>
+      <c r="G75" s="5">
+        <v>100</v>
+      </c>
+      <c r="H75" s="5">
+        <v>300</v>
+      </c>
+      <c r="I75" s="5">
+        <v>100</v>
+      </c>
+      <c r="J75" s="5">
+        <v>300</v>
+      </c>
+      <c r="K75" s="5">
+        <v>100</v>
+      </c>
+      <c r="L75" s="5">
+        <v>300</v>
+      </c>
+      <c r="M75" s="5">
+        <v>100</v>
+      </c>
+      <c r="N75" s="5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="27"/>
+      <c r="B76" s="27"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="16"/>
+      <c r="I76" s="16"/>
+      <c r="J76" s="16"/>
+      <c r="K76" s="16"/>
+      <c r="L76" s="16"/>
+      <c r="M76" s="16"/>
+      <c r="N76" s="16"/>
+    </row>
+    <row r="77" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="27"/>
+      <c r="B77" s="27"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="16"/>
+      <c r="I77" s="16"/>
+      <c r="J77" s="16"/>
+      <c r="K77" s="16"/>
+      <c r="L77" s="16"/>
+      <c r="M77" s="16"/>
+      <c r="N77" s="16"/>
+    </row>
+    <row r="78" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A78" s="10"/>
+      <c r="B78" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C78" s="35">
-        <v>0</v>
-      </c>
-      <c r="D78" s="35">
+      <c r="C78" s="34">
+        <v>0</v>
+      </c>
+      <c r="D78" s="34">
         <v>36676.629999999997</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="11"/>
-      <c r="B79" s="19" t="s">
+      <c r="E78" s="34">
+        <v>0</v>
+      </c>
+      <c r="F78" s="34">
+        <v>36676.629999999997</v>
+      </c>
+      <c r="G78" s="34">
+        <v>0</v>
+      </c>
+      <c r="H78" s="34">
+        <v>36676.629999999997</v>
+      </c>
+      <c r="I78" s="34">
+        <v>0</v>
+      </c>
+      <c r="J78" s="34">
+        <v>36676.629999999997</v>
+      </c>
+      <c r="K78" s="34">
+        <v>0</v>
+      </c>
+      <c r="L78" s="34">
+        <v>36676.629999999997</v>
+      </c>
+      <c r="M78" s="34">
+        <v>0</v>
+      </c>
+      <c r="N78" s="34">
+        <v>36676.629999999997</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A79" s="10"/>
+      <c r="B79" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C79" s="35">
-        <v>0</v>
-      </c>
-      <c r="D79" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="28"/>
-      <c r="B80" s="18" t="s">
+      <c r="C79" s="34">
+        <v>0</v>
+      </c>
+      <c r="D79" s="34">
+        <v>0</v>
+      </c>
+      <c r="E79" s="34">
+        <v>0</v>
+      </c>
+      <c r="F79" s="34">
+        <v>0</v>
+      </c>
+      <c r="G79" s="34">
+        <v>0</v>
+      </c>
+      <c r="H79" s="34">
+        <v>0</v>
+      </c>
+      <c r="I79" s="34">
+        <v>0</v>
+      </c>
+      <c r="J79" s="34">
+        <v>0</v>
+      </c>
+      <c r="K79" s="34">
+        <v>0</v>
+      </c>
+      <c r="L79" s="34">
+        <v>0</v>
+      </c>
+      <c r="M79" s="34">
+        <v>0</v>
+      </c>
+      <c r="N79" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="27"/>
+      <c r="B80" s="17" t="s">
         <v>62</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="14"/>
-      <c r="B81" s="18" t="s">
+      <c r="E80" s="5"/>
+      <c r="F80" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K80" s="5"/>
+      <c r="L80" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M80" s="5"/>
+      <c r="N80" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="13"/>
+      <c r="B81" s="17" t="s">
         <v>63</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="11"/>
-      <c r="B82" s="43" t="s">
+      <c r="E81" s="5"/>
+      <c r="F81" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I81" s="5"/>
+      <c r="J81" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K81" s="5"/>
+      <c r="L81" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M81" s="5"/>
+      <c r="N81" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A82" s="10"/>
+      <c r="B82" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="C82" s="29">
-        <v>0</v>
-      </c>
-      <c r="D82" s="27" t="s">
+      <c r="C82" s="28">
+        <v>0</v>
+      </c>
+      <c r="D82" s="26" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="11"/>
-      <c r="B83" s="43" t="s">
+      <c r="E82" s="28">
+        <v>0</v>
+      </c>
+      <c r="F82" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="G82" s="28">
+        <v>0</v>
+      </c>
+      <c r="H82" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="I82" s="28">
+        <v>0</v>
+      </c>
+      <c r="J82" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="K82" s="28">
+        <v>0</v>
+      </c>
+      <c r="L82" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="M82" s="28">
+        <v>0</v>
+      </c>
+      <c r="N82" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A83" s="10"/>
+      <c r="B83" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="C83" s="27">
+      <c r="C83" s="26">
         <v>267000</v>
       </c>
-      <c r="D83" s="27">
+      <c r="D83" s="26">
         <v>300000</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="28"/>
-      <c r="B84" s="18" t="s">
+      <c r="E83" s="26">
+        <v>267000</v>
+      </c>
+      <c r="F83" s="26">
+        <v>300000</v>
+      </c>
+      <c r="G83" s="26">
+        <v>267000</v>
+      </c>
+      <c r="H83" s="26">
+        <v>300000</v>
+      </c>
+      <c r="I83" s="26">
+        <v>267000</v>
+      </c>
+      <c r="J83" s="26">
+        <v>300000</v>
+      </c>
+      <c r="K83" s="26">
+        <v>267000</v>
+      </c>
+      <c r="L83" s="26">
+        <v>300000</v>
+      </c>
+      <c r="M83" s="26">
+        <v>267000</v>
+      </c>
+      <c r="N83" s="26">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="27"/>
+      <c r="B84" s="17" t="s">
         <v>65</v>
       </c>
       <c r="C84" s="5">
@@ -2398,10 +4544,40 @@
       <c r="D84" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="28"/>
-      <c r="B85" s="18" t="s">
+      <c r="E84" s="5">
+        <v>0</v>
+      </c>
+      <c r="F84" s="5">
+        <v>0</v>
+      </c>
+      <c r="G84" s="5">
+        <v>0</v>
+      </c>
+      <c r="H84" s="5">
+        <v>0</v>
+      </c>
+      <c r="I84" s="5">
+        <v>0</v>
+      </c>
+      <c r="J84" s="5">
+        <v>0</v>
+      </c>
+      <c r="K84" s="5">
+        <v>0</v>
+      </c>
+      <c r="L84" s="5">
+        <v>0</v>
+      </c>
+      <c r="M84" s="5">
+        <v>0</v>
+      </c>
+      <c r="N84" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="27"/>
+      <c r="B85" s="17" t="s">
         <v>66</v>
       </c>
       <c r="C85" s="5">
@@ -2410,10 +4586,40 @@
       <c r="D85" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="17"/>
-      <c r="B86" s="18" t="s">
+      <c r="E85" s="5">
+        <v>0</v>
+      </c>
+      <c r="F85" s="5">
+        <v>0</v>
+      </c>
+      <c r="G85" s="5">
+        <v>0</v>
+      </c>
+      <c r="H85" s="5">
+        <v>0</v>
+      </c>
+      <c r="I85" s="5">
+        <v>0</v>
+      </c>
+      <c r="J85" s="5">
+        <v>0</v>
+      </c>
+      <c r="K85" s="5">
+        <v>0</v>
+      </c>
+      <c r="L85" s="5">
+        <v>0</v>
+      </c>
+      <c r="M85" s="5">
+        <v>0</v>
+      </c>
+      <c r="N85" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="16"/>
+      <c r="B86" s="17" t="s">
         <v>67</v>
       </c>
       <c r="C86" s="5">
@@ -2422,10 +4628,40 @@
       <c r="D86" s="5">
         <v>258458.9</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="17"/>
-      <c r="B87" s="18" t="s">
+      <c r="E86" s="5">
+        <v>13000</v>
+      </c>
+      <c r="F86" s="5">
+        <v>258458.9</v>
+      </c>
+      <c r="G86" s="5">
+        <v>13000</v>
+      </c>
+      <c r="H86" s="5">
+        <v>258458.9</v>
+      </c>
+      <c r="I86" s="5">
+        <v>13000</v>
+      </c>
+      <c r="J86" s="5">
+        <v>258458.9</v>
+      </c>
+      <c r="K86" s="5">
+        <v>13000</v>
+      </c>
+      <c r="L86" s="5">
+        <v>258458.9</v>
+      </c>
+      <c r="M86" s="5">
+        <v>13000</v>
+      </c>
+      <c r="N86" s="5">
+        <v>258458.9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="16"/>
+      <c r="B87" s="17" t="s">
         <v>68</v>
       </c>
       <c r="C87" s="5">
@@ -2434,10 +4670,40 @@
       <c r="D87" s="5">
         <v>50000</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="20"/>
-      <c r="B88" s="18" t="s">
+      <c r="E87" s="5">
+        <v>22400</v>
+      </c>
+      <c r="F87" s="5">
+        <v>50000</v>
+      </c>
+      <c r="G87" s="5">
+        <v>22400</v>
+      </c>
+      <c r="H87" s="5">
+        <v>50000</v>
+      </c>
+      <c r="I87" s="5">
+        <v>22400</v>
+      </c>
+      <c r="J87" s="5">
+        <v>50000</v>
+      </c>
+      <c r="K87" s="5">
+        <v>22400</v>
+      </c>
+      <c r="L87" s="5">
+        <v>50000</v>
+      </c>
+      <c r="M87" s="5">
+        <v>22400</v>
+      </c>
+      <c r="N87" s="5">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="19"/>
+      <c r="B88" s="17" t="s">
         <v>69</v>
       </c>
       <c r="C88" s="5">
@@ -2446,20 +4712,70 @@
       <c r="D88" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="28"/>
-      <c r="B89" s="18" t="s">
+      <c r="E88" s="5">
+        <v>0</v>
+      </c>
+      <c r="F88" s="5">
+        <v>0</v>
+      </c>
+      <c r="G88" s="5">
+        <v>0</v>
+      </c>
+      <c r="H88" s="5">
+        <v>0</v>
+      </c>
+      <c r="I88" s="5">
+        <v>0</v>
+      </c>
+      <c r="J88" s="5">
+        <v>0</v>
+      </c>
+      <c r="K88" s="5">
+        <v>0</v>
+      </c>
+      <c r="L88" s="5">
+        <v>0</v>
+      </c>
+      <c r="M88" s="5">
+        <v>0</v>
+      </c>
+      <c r="N88" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="27"/>
+      <c r="B89" s="17" t="s">
         <v>59</v>
       </c>
       <c r="C89" s="5">
         <v>0</v>
       </c>
       <c r="D89" s="5"/>
-    </row>
-    <row r="90" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="28"/>
-      <c r="B90" s="18" t="s">
+      <c r="E89" s="5">
+        <v>0</v>
+      </c>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5">
+        <v>0</v>
+      </c>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5">
+        <v>0</v>
+      </c>
+      <c r="J89" s="5"/>
+      <c r="K89" s="5">
+        <v>0</v>
+      </c>
+      <c r="L89" s="5"/>
+      <c r="M89" s="5">
+        <v>0</v>
+      </c>
+      <c r="N89" s="5"/>
+    </row>
+    <row r="90" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="27"/>
+      <c r="B90" s="17" t="s">
         <v>64</v>
       </c>
       <c r="C90" s="5">
@@ -2468,16 +4784,86 @@
       <c r="D90" s="5">
         <v>55000</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="11"/>
+      <c r="E90" s="5">
+        <v>35000</v>
+      </c>
+      <c r="F90" s="5">
+        <v>55000</v>
+      </c>
+      <c r="G90" s="5">
+        <v>35000</v>
+      </c>
+      <c r="H90" s="5">
+        <v>55000</v>
+      </c>
+      <c r="I90" s="5">
+        <v>35000</v>
+      </c>
+      <c r="J90" s="5">
+        <v>55000</v>
+      </c>
+      <c r="K90" s="5">
+        <v>35000</v>
+      </c>
+      <c r="L90" s="5">
+        <v>55000</v>
+      </c>
+      <c r="M90" s="5">
+        <v>35000</v>
+      </c>
+      <c r="N90" s="5">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A91" s="10"/>
       <c r="B91" s="1"/>
-      <c r="C91" s="29">
+      <c r="C91" s="28">
         <f>SUM(C69+C83)</f>
         <v>289000</v>
       </c>
-      <c r="D91" s="29">
+      <c r="D91" s="28">
         <f>SUM(D69+D83)</f>
+        <v>346000</v>
+      </c>
+      <c r="E91" s="28">
+        <f>SUM(E69+E83)</f>
+        <v>289000</v>
+      </c>
+      <c r="F91" s="28">
+        <f>SUM(F69+F83)</f>
+        <v>346000</v>
+      </c>
+      <c r="G91" s="28">
+        <f>SUM(G69+G83)</f>
+        <v>289000</v>
+      </c>
+      <c r="H91" s="28">
+        <f>SUM(H69+H83)</f>
+        <v>346000</v>
+      </c>
+      <c r="I91" s="28">
+        <f>SUM(I69+I83)</f>
+        <v>289000</v>
+      </c>
+      <c r="J91" s="28">
+        <f>SUM(J69+J83)</f>
+        <v>346000</v>
+      </c>
+      <c r="K91" s="28">
+        <f>SUM(K69+K83)</f>
+        <v>289000</v>
+      </c>
+      <c r="L91" s="28">
+        <f>SUM(L69+L83)</f>
+        <v>346000</v>
+      </c>
+      <c r="M91" s="28">
+        <f>SUM(M69+M83)</f>
+        <v>289000</v>
+      </c>
+      <c r="N91" s="28">
+        <f>SUM(N69+N83)</f>
         <v>346000</v>
       </c>
     </row>
@@ -2489,29 +4875,6 @@
     <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/uploads/attachments/2020/FebFinancials.xlsx
+++ b/uploads/attachments/2020/FebFinancials.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bhutan Code Challenge-2019\BHUTAN STARTUP HACKATHON CHALLENGE\after event\data\Revenue\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="1275" windowWidth="20055" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="86">
   <si>
     <t>BHUTAN TELECOM LIMITED</t>
   </si>
@@ -244,20 +247,50 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>As at 31st March, 2019</t>
+  </si>
+  <si>
+    <t>As at 28th April, 2019</t>
+  </si>
+  <si>
+    <t>As at 31st May, 2019</t>
+  </si>
+  <si>
+    <t>As at 28th June, 2019</t>
+  </si>
+  <si>
+    <t>As at 31st July, 2019</t>
+  </si>
+  <si>
+    <t>As at 28th August, 2019</t>
+  </si>
+  <si>
+    <t>As at 31st September, 2019</t>
+  </si>
+  <si>
+    <t>As at 28th October, 2019</t>
+  </si>
+  <si>
+    <t>As at 31st November, 2019</t>
+  </si>
+  <si>
+    <t>As at 28th December, 2019</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="#,##0.00\ ;&quot; (&quot;#,##0.00\);&quot; -&quot;#\ ;@\ "/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00\ ;&quot; (&quot;#,##0.00\);&quot; -&quot;#\ ;@\ "/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -506,7 +539,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -695,6 +728,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -933,9 +978,9 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="23" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="23" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="23" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
@@ -955,22 +1000,13 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="3"/>
@@ -979,11 +1015,9 @@
     <xf numFmtId="43" fontId="25" fillId="34" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="43" fontId="26" fillId="34" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -998,23 +1032,11 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="34" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="35" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="35" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1030,7 +1052,7 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="32" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="32" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1039,30 +1061,30 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="28" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="27" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="31" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="34" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="34" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="28" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="31" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="27" fillId="33" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="27" fillId="33" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1070,8 +1092,37 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="34" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="34" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="74">
@@ -1152,6 +1203,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1198,7 +1257,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1230,9 +1289,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1264,6 +1324,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1439,1012 +1500,3370 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E91"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="D91" sqref="A5:D91"/>
+    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="44.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="22"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75">
-      <c r="A2" s="5" t="s">
+    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="20"/>
-    </row>
-    <row r="3" spans="1:4" ht="16.5">
-      <c r="A3" s="46"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="52" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="52"/>
+    </row>
+    <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="37"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="43" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5">
-      <c r="A4" s="39"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="41"/>
-    </row>
-    <row r="5" spans="1:4" ht="31.5">
-      <c r="A5" s="47" t="s">
+    <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="30"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="32"/>
+    </row>
+    <row r="5" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="48" t="s">
+      <c r="B5" s="38"/>
+      <c r="C5" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="41" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="24"/>
-    </row>
-    <row r="7" spans="1:4" ht="15.75">
-      <c r="A7" s="16" t="s">
+      <c r="E5" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="I5" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="J5" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="K5" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="L5" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="M5" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="N5" s="41" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="15"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="24"/>
-    </row>
-    <row r="8" spans="1:4" ht="15.75">
-      <c r="A8" s="7"/>
-      <c r="B8" s="16" t="s">
+      <c r="C7" s="29"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="15"/>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.75">
-      <c r="A9" s="10"/>
-      <c r="B9" s="26" t="s">
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="5">
         <v>1000000</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="5">
         <v>2100000</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75">
-      <c r="A10" s="10"/>
-      <c r="B10" s="26" t="s">
+      <c r="E9" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="F9" s="5">
+        <v>2100000</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="H9" s="5">
+        <v>2100000</v>
+      </c>
+      <c r="I9" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="J9" s="5">
+        <v>2100000</v>
+      </c>
+      <c r="K9" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="L9" s="5">
+        <v>2100000</v>
+      </c>
+      <c r="M9" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="N9" s="5">
+        <v>2100000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="5">
         <v>50000</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="5">
         <v>90000</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="7"/>
+      <c r="E10" s="5">
+        <v>50000</v>
+      </c>
+      <c r="F10" s="5">
+        <v>90000</v>
+      </c>
+      <c r="G10" s="5">
+        <v>50000</v>
+      </c>
+      <c r="H10" s="5">
+        <v>90000</v>
+      </c>
+      <c r="I10" s="5">
+        <v>50000</v>
+      </c>
+      <c r="J10" s="5">
+        <v>90000</v>
+      </c>
+      <c r="K10" s="5">
+        <v>50000</v>
+      </c>
+      <c r="L10" s="5">
+        <v>90000</v>
+      </c>
+      <c r="M10" s="5">
+        <v>50000</v>
+      </c>
+      <c r="N10" s="5">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="26">
         <f>SUM(C9:C10)</f>
         <v>1050000</v>
       </c>
-      <c r="D11" s="35">
+      <c r="D11" s="26">
         <f>SUM(D9:D10)</f>
         <v>2190000</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75">
-      <c r="A12" s="10"/>
-      <c r="B12" s="26" t="s">
+      <c r="E11" s="26">
+        <f>SUM(E9:E10)</f>
+        <v>1050000</v>
+      </c>
+      <c r="F11" s="26">
+        <f>SUM(F9:F10)</f>
+        <v>2190000</v>
+      </c>
+      <c r="G11" s="26">
+        <f>SUM(G9:G10)</f>
+        <v>1050000</v>
+      </c>
+      <c r="H11" s="26">
+        <f>SUM(H9:H10)</f>
+        <v>2190000</v>
+      </c>
+      <c r="I11" s="26">
+        <f>SUM(I9:I10)</f>
+        <v>1050000</v>
+      </c>
+      <c r="J11" s="26">
+        <f>SUM(J9:J10)</f>
+        <v>2190000</v>
+      </c>
+      <c r="K11" s="26">
+        <f>SUM(K9:K10)</f>
+        <v>1050000</v>
+      </c>
+      <c r="L11" s="26">
+        <f>SUM(L9:L10)</f>
+        <v>2190000</v>
+      </c>
+      <c r="M11" s="26">
+        <f>SUM(M9:M10)</f>
+        <v>1050000</v>
+      </c>
+      <c r="N11" s="26">
+        <f>SUM(N9:N10)</f>
+        <v>2190000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="5">
         <v>50000000</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="5">
         <v>110000000</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75">
-      <c r="A13" s="10"/>
-      <c r="B13" s="26" t="s">
+      <c r="E12" s="5">
+        <v>50000000</v>
+      </c>
+      <c r="F12" s="5">
+        <v>110000000</v>
+      </c>
+      <c r="G12" s="5">
+        <v>50000000</v>
+      </c>
+      <c r="H12" s="5">
+        <v>110000000</v>
+      </c>
+      <c r="I12" s="5">
+        <v>50000000</v>
+      </c>
+      <c r="J12" s="5">
+        <v>110000000</v>
+      </c>
+      <c r="K12" s="5">
+        <v>50000000</v>
+      </c>
+      <c r="L12" s="5">
+        <v>110000000</v>
+      </c>
+      <c r="M12" s="5">
+        <v>50000000</v>
+      </c>
+      <c r="N12" s="5">
+        <v>110000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="5">
         <v>2200000</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="5">
         <v>4000000</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75">
-      <c r="A14" s="10"/>
-      <c r="B14" s="26" t="s">
+      <c r="E13" s="5">
+        <v>2200000</v>
+      </c>
+      <c r="F13" s="5">
+        <v>4000000</v>
+      </c>
+      <c r="G13" s="5">
+        <v>2200000</v>
+      </c>
+      <c r="H13" s="5">
+        <v>4000000</v>
+      </c>
+      <c r="I13" s="5">
+        <v>2200000</v>
+      </c>
+      <c r="J13" s="5">
+        <v>4000000</v>
+      </c>
+      <c r="K13" s="5">
+        <v>2200000</v>
+      </c>
+      <c r="L13" s="5">
+        <v>4000000</v>
+      </c>
+      <c r="M13" s="5">
+        <v>2200000</v>
+      </c>
+      <c r="N13" s="5">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="5">
         <v>30000000</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="5">
         <v>67000000</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75">
-      <c r="A15" s="10"/>
-      <c r="B15" s="26" t="s">
+      <c r="E14" s="5">
+        <v>30000000</v>
+      </c>
+      <c r="F14" s="5">
+        <v>67000000</v>
+      </c>
+      <c r="G14" s="5">
+        <v>30000000</v>
+      </c>
+      <c r="H14" s="5">
+        <v>67000000</v>
+      </c>
+      <c r="I14" s="5">
+        <v>30000000</v>
+      </c>
+      <c r="J14" s="5">
+        <v>67000000</v>
+      </c>
+      <c r="K14" s="5">
+        <v>30000000</v>
+      </c>
+      <c r="L14" s="5">
+        <v>67000000</v>
+      </c>
+      <c r="M14" s="5">
+        <v>30000000</v>
+      </c>
+      <c r="N14" s="5">
+        <v>67000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="5">
         <v>200000</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="5">
         <v>400000</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75">
-      <c r="A16" s="10"/>
-      <c r="B16" s="26" t="s">
+      <c r="E15" s="5">
+        <v>200000</v>
+      </c>
+      <c r="F15" s="5">
+        <v>400000</v>
+      </c>
+      <c r="G15" s="5">
+        <v>200000</v>
+      </c>
+      <c r="H15" s="5">
+        <v>400000</v>
+      </c>
+      <c r="I15" s="5">
+        <v>200000</v>
+      </c>
+      <c r="J15" s="5">
+        <v>400000</v>
+      </c>
+      <c r="K15" s="5">
+        <v>200000</v>
+      </c>
+      <c r="L15" s="5">
+        <v>400000</v>
+      </c>
+      <c r="M15" s="5">
+        <v>200000</v>
+      </c>
+      <c r="N15" s="5">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="5">
         <v>6000000</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="5">
         <v>12500000</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75">
-      <c r="A17" s="10"/>
-      <c r="B17" s="26" t="s">
+      <c r="E16" s="5">
+        <v>6000000</v>
+      </c>
+      <c r="F16" s="5">
+        <v>12500000</v>
+      </c>
+      <c r="G16" s="5">
+        <v>6000000</v>
+      </c>
+      <c r="H16" s="5">
+        <v>12500000</v>
+      </c>
+      <c r="I16" s="5">
+        <v>6000000</v>
+      </c>
+      <c r="J16" s="5">
+        <v>12500000</v>
+      </c>
+      <c r="K16" s="5">
+        <v>6000000</v>
+      </c>
+      <c r="L16" s="5">
+        <v>12500000</v>
+      </c>
+      <c r="M16" s="5">
+        <v>6000000</v>
+      </c>
+      <c r="N16" s="5">
+        <v>12500000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="5">
         <v>200000</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="5">
         <v>300000</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75">
-      <c r="A18" s="10"/>
-      <c r="B18" s="26" t="s">
+      <c r="E17" s="5">
+        <v>200000</v>
+      </c>
+      <c r="F17" s="5">
+        <v>300000</v>
+      </c>
+      <c r="G17" s="5">
+        <v>200000</v>
+      </c>
+      <c r="H17" s="5">
+        <v>300000</v>
+      </c>
+      <c r="I17" s="5">
+        <v>200000</v>
+      </c>
+      <c r="J17" s="5">
+        <v>300000</v>
+      </c>
+      <c r="K17" s="5">
+        <v>200000</v>
+      </c>
+      <c r="L17" s="5">
+        <v>300000</v>
+      </c>
+      <c r="M17" s="5">
+        <v>200000</v>
+      </c>
+      <c r="N17" s="5">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="5">
         <v>150000</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="5">
         <v>200000</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75">
-      <c r="A19" s="10"/>
-      <c r="B19" s="26" t="s">
+      <c r="E18" s="5">
+        <v>150000</v>
+      </c>
+      <c r="F18" s="5">
+        <v>200000</v>
+      </c>
+      <c r="G18" s="5">
+        <v>150000</v>
+      </c>
+      <c r="H18" s="5">
+        <v>200000</v>
+      </c>
+      <c r="I18" s="5">
+        <v>150000</v>
+      </c>
+      <c r="J18" s="5">
+        <v>200000</v>
+      </c>
+      <c r="K18" s="5">
+        <v>150000</v>
+      </c>
+      <c r="L18" s="5">
+        <v>200000</v>
+      </c>
+      <c r="M18" s="5">
+        <v>150000</v>
+      </c>
+      <c r="N18" s="5">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="5">
         <v>2100000</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="5">
         <v>3100000</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75">
-      <c r="A20" s="10"/>
-      <c r="B20" s="26" t="s">
+      <c r="E19" s="5">
+        <v>2100000</v>
+      </c>
+      <c r="F19" s="5">
+        <v>3100000</v>
+      </c>
+      <c r="G19" s="5">
+        <v>2100000</v>
+      </c>
+      <c r="H19" s="5">
+        <v>3100000</v>
+      </c>
+      <c r="I19" s="5">
+        <v>2100000</v>
+      </c>
+      <c r="J19" s="5">
+        <v>3100000</v>
+      </c>
+      <c r="K19" s="5">
+        <v>2100000</v>
+      </c>
+      <c r="L19" s="5">
+        <v>3100000</v>
+      </c>
+      <c r="M19" s="5">
+        <v>2100000</v>
+      </c>
+      <c r="N19" s="5">
+        <v>3100000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="5">
         <v>245000</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="5">
         <v>345000</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75">
-      <c r="A21" s="10"/>
-      <c r="B21" s="26" t="s">
+      <c r="E20" s="5">
+        <v>245000</v>
+      </c>
+      <c r="F20" s="5">
+        <v>345000</v>
+      </c>
+      <c r="G20" s="5">
+        <v>245000</v>
+      </c>
+      <c r="H20" s="5">
+        <v>345000</v>
+      </c>
+      <c r="I20" s="5">
+        <v>245000</v>
+      </c>
+      <c r="J20" s="5">
+        <v>345000</v>
+      </c>
+      <c r="K20" s="5">
+        <v>245000</v>
+      </c>
+      <c r="L20" s="5">
+        <v>345000</v>
+      </c>
+      <c r="M20" s="5">
+        <v>245000</v>
+      </c>
+      <c r="N20" s="5">
+        <v>345000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="5">
         <v>1000000</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="5">
         <v>2300000</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75">
-      <c r="A22" s="10"/>
-      <c r="B22" s="26" t="s">
+      <c r="E21" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="F21" s="5">
+        <v>2300000</v>
+      </c>
+      <c r="G21" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="H21" s="5">
+        <v>2300000</v>
+      </c>
+      <c r="I21" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="J21" s="5">
+        <v>2300000</v>
+      </c>
+      <c r="K21" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="L21" s="5">
+        <v>2300000</v>
+      </c>
+      <c r="M21" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="N21" s="5">
+        <v>2300000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="5">
         <v>62544</v>
       </c>
-      <c r="D22" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="29"/>
-      <c r="B23" s="6" t="s">
+      <c r="D22" s="5">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5">
+        <v>62544</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5">
+        <v>62544</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0</v>
+      </c>
+      <c r="I22" s="5">
+        <v>62544</v>
+      </c>
+      <c r="J22" s="5">
+        <v>0</v>
+      </c>
+      <c r="K22" s="5">
+        <v>62544</v>
+      </c>
+      <c r="L22" s="5">
+        <v>0</v>
+      </c>
+      <c r="M22" s="5">
+        <v>62544</v>
+      </c>
+      <c r="N22" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="20"/>
+      <c r="B23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="43">
+      <c r="C23" s="34">
         <f>SUM(C12:C22)</f>
         <v>92157544</v>
       </c>
-      <c r="D23" s="43">
+      <c r="D23" s="34">
         <f>SUM(D12:D22)</f>
         <v>200145000</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75">
-      <c r="A24" s="10"/>
-      <c r="B24" s="26" t="s">
+      <c r="E23" s="34">
+        <f>SUM(E12:E22)</f>
+        <v>92157544</v>
+      </c>
+      <c r="F23" s="34">
+        <f>SUM(F12:F22)</f>
+        <v>200145000</v>
+      </c>
+      <c r="G23" s="34">
+        <f>SUM(G12:G22)</f>
+        <v>92157544</v>
+      </c>
+      <c r="H23" s="34">
+        <f>SUM(H12:H22)</f>
+        <v>200145000</v>
+      </c>
+      <c r="I23" s="34">
+        <f>SUM(I12:I22)</f>
+        <v>92157544</v>
+      </c>
+      <c r="J23" s="34">
+        <f>SUM(J12:J22)</f>
+        <v>200145000</v>
+      </c>
+      <c r="K23" s="34">
+        <f>SUM(K12:K22)</f>
+        <v>92157544</v>
+      </c>
+      <c r="L23" s="34">
+        <f>SUM(L12:L22)</f>
+        <v>200145000</v>
+      </c>
+      <c r="M23" s="34">
+        <f>SUM(M12:M22)</f>
+        <v>92157544</v>
+      </c>
+      <c r="N23" s="34">
+        <f>SUM(N12:N22)</f>
+        <v>200145000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="5">
         <v>300000</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="5">
         <v>800000</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75">
-      <c r="A25" s="10"/>
-      <c r="B25" s="26" t="s">
+      <c r="E24" s="5">
+        <v>300000</v>
+      </c>
+      <c r="F24" s="5">
+        <v>800000</v>
+      </c>
+      <c r="G24" s="5">
+        <v>300000</v>
+      </c>
+      <c r="H24" s="5">
+        <v>800000</v>
+      </c>
+      <c r="I24" s="5">
+        <v>300000</v>
+      </c>
+      <c r="J24" s="5">
+        <v>800000</v>
+      </c>
+      <c r="K24" s="5">
+        <v>300000</v>
+      </c>
+      <c r="L24" s="5">
+        <v>800000</v>
+      </c>
+      <c r="M24" s="5">
+        <v>300000</v>
+      </c>
+      <c r="N24" s="5">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="5">
         <v>900000</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="5">
         <v>1900000</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75">
-      <c r="A26" s="10"/>
-      <c r="B26" s="26" t="s">
+      <c r="E25" s="5">
+        <v>900000</v>
+      </c>
+      <c r="F25" s="5">
+        <v>1900000</v>
+      </c>
+      <c r="G25" s="5">
+        <v>900000</v>
+      </c>
+      <c r="H25" s="5">
+        <v>1900000</v>
+      </c>
+      <c r="I25" s="5">
+        <v>900000</v>
+      </c>
+      <c r="J25" s="5">
+        <v>1900000</v>
+      </c>
+      <c r="K25" s="5">
+        <v>900000</v>
+      </c>
+      <c r="L25" s="5">
+        <v>1900000</v>
+      </c>
+      <c r="M25" s="5">
+        <v>900000</v>
+      </c>
+      <c r="N25" s="5">
+        <v>1900000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="5">
         <v>1200000</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="5">
         <v>2500000</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75">
-      <c r="A27" s="10"/>
-      <c r="B27" s="26" t="s">
+      <c r="E26" s="5">
+        <v>1200000</v>
+      </c>
+      <c r="F26" s="5">
+        <v>2500000</v>
+      </c>
+      <c r="G26" s="5">
+        <v>1200000</v>
+      </c>
+      <c r="H26" s="5">
+        <v>2500000</v>
+      </c>
+      <c r="I26" s="5">
+        <v>1200000</v>
+      </c>
+      <c r="J26" s="5">
+        <v>2500000</v>
+      </c>
+      <c r="K26" s="5">
+        <v>1200000</v>
+      </c>
+      <c r="L26" s="5">
+        <v>2500000</v>
+      </c>
+      <c r="M26" s="5">
+        <v>1200000</v>
+      </c>
+      <c r="N26" s="5">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="5">
         <v>125000</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="5">
         <v>310000</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75">
-      <c r="A28" s="10"/>
-      <c r="B28" s="26" t="s">
+      <c r="E27" s="5">
+        <v>125000</v>
+      </c>
+      <c r="F27" s="5">
+        <v>310000</v>
+      </c>
+      <c r="G27" s="5">
+        <v>125000</v>
+      </c>
+      <c r="H27" s="5">
+        <v>310000</v>
+      </c>
+      <c r="I27" s="5">
+        <v>125000</v>
+      </c>
+      <c r="J27" s="5">
+        <v>310000</v>
+      </c>
+      <c r="K27" s="5">
+        <v>125000</v>
+      </c>
+      <c r="L27" s="5">
+        <v>310000</v>
+      </c>
+      <c r="M27" s="5">
+        <v>125000</v>
+      </c>
+      <c r="N27" s="5">
+        <v>310000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="5">
         <v>20000</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="5">
         <v>49000</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75">
-      <c r="A29" s="10"/>
-      <c r="B29" s="26" t="s">
+      <c r="E28" s="5">
+        <v>20000</v>
+      </c>
+      <c r="F28" s="5">
+        <v>49000</v>
+      </c>
+      <c r="G28" s="5">
+        <v>20000</v>
+      </c>
+      <c r="H28" s="5">
+        <v>49000</v>
+      </c>
+      <c r="I28" s="5">
+        <v>20000</v>
+      </c>
+      <c r="J28" s="5">
+        <v>49000</v>
+      </c>
+      <c r="K28" s="5">
+        <v>20000</v>
+      </c>
+      <c r="L28" s="5">
+        <v>49000</v>
+      </c>
+      <c r="M28" s="5">
+        <v>20000</v>
+      </c>
+      <c r="N28" s="5">
+        <v>49000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="5">
         <v>25000</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="5">
         <v>54000</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75">
-      <c r="A30" s="10"/>
-      <c r="B30" s="26" t="s">
+      <c r="E29" s="5">
+        <v>25000</v>
+      </c>
+      <c r="F29" s="5">
+        <v>54000</v>
+      </c>
+      <c r="G29" s="5">
+        <v>25000</v>
+      </c>
+      <c r="H29" s="5">
+        <v>54000</v>
+      </c>
+      <c r="I29" s="5">
+        <v>25000</v>
+      </c>
+      <c r="J29" s="5">
+        <v>54000</v>
+      </c>
+      <c r="K29" s="5">
+        <v>25000</v>
+      </c>
+      <c r="L29" s="5">
+        <v>54000</v>
+      </c>
+      <c r="M29" s="5">
+        <v>25000</v>
+      </c>
+      <c r="N29" s="5">
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="5">
         <v>30000</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="5">
         <v>59000</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75">
-      <c r="A31" s="10"/>
-      <c r="B31" s="26" t="s">
+      <c r="E30" s="5">
+        <v>30000</v>
+      </c>
+      <c r="F30" s="5">
+        <v>59000</v>
+      </c>
+      <c r="G30" s="5">
+        <v>30000</v>
+      </c>
+      <c r="H30" s="5">
+        <v>59000</v>
+      </c>
+      <c r="I30" s="5">
+        <v>30000</v>
+      </c>
+      <c r="J30" s="5">
+        <v>59000</v>
+      </c>
+      <c r="K30" s="5">
+        <v>30000</v>
+      </c>
+      <c r="L30" s="5">
+        <v>59000</v>
+      </c>
+      <c r="M30" s="5">
+        <v>30000</v>
+      </c>
+      <c r="N30" s="5">
+        <v>59000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="5">
         <v>35000</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="5">
         <v>64000</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.75">
-      <c r="A32" s="10"/>
-      <c r="B32" s="26" t="s">
+      <c r="E31" s="5">
+        <v>35000</v>
+      </c>
+      <c r="F31" s="5">
+        <v>64000</v>
+      </c>
+      <c r="G31" s="5">
+        <v>35000</v>
+      </c>
+      <c r="H31" s="5">
+        <v>64000</v>
+      </c>
+      <c r="I31" s="5">
+        <v>35000</v>
+      </c>
+      <c r="J31" s="5">
+        <v>64000</v>
+      </c>
+      <c r="K31" s="5">
+        <v>35000</v>
+      </c>
+      <c r="L31" s="5">
+        <v>64000</v>
+      </c>
+      <c r="M31" s="5">
+        <v>35000</v>
+      </c>
+      <c r="N31" s="5">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="5">
         <v>40000</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="5">
         <v>69000</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="15.75">
-      <c r="A33" s="10"/>
-      <c r="B33" s="26" t="s">
+      <c r="E32" s="5">
+        <v>40000</v>
+      </c>
+      <c r="F32" s="5">
+        <v>69000</v>
+      </c>
+      <c r="G32" s="5">
+        <v>40000</v>
+      </c>
+      <c r="H32" s="5">
+        <v>69000</v>
+      </c>
+      <c r="I32" s="5">
+        <v>40000</v>
+      </c>
+      <c r="J32" s="5">
+        <v>69000</v>
+      </c>
+      <c r="K32" s="5">
+        <v>40000</v>
+      </c>
+      <c r="L32" s="5">
+        <v>69000</v>
+      </c>
+      <c r="M32" s="5">
+        <v>40000</v>
+      </c>
+      <c r="N32" s="5">
+        <v>69000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="5">
         <v>460000</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="5">
         <v>900000</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="15.75">
-      <c r="A34" s="10"/>
-      <c r="B34" s="26" t="s">
+      <c r="E33" s="5">
+        <v>460000</v>
+      </c>
+      <c r="F33" s="5">
+        <v>900000</v>
+      </c>
+      <c r="G33" s="5">
+        <v>460000</v>
+      </c>
+      <c r="H33" s="5">
+        <v>900000</v>
+      </c>
+      <c r="I33" s="5">
+        <v>460000</v>
+      </c>
+      <c r="J33" s="5">
+        <v>900000</v>
+      </c>
+      <c r="K33" s="5">
+        <v>460000</v>
+      </c>
+      <c r="L33" s="5">
+        <v>900000</v>
+      </c>
+      <c r="M33" s="5">
+        <v>460000</v>
+      </c>
+      <c r="N33" s="5">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="5">
         <v>10000</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="5">
         <v>23000</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="29"/>
-      <c r="B35" s="6" t="s">
+      <c r="E34" s="5">
+        <v>10000</v>
+      </c>
+      <c r="F34" s="5">
+        <v>23000</v>
+      </c>
+      <c r="G34" s="5">
+        <v>10000</v>
+      </c>
+      <c r="H34" s="5">
+        <v>23000</v>
+      </c>
+      <c r="I34" s="5">
+        <v>10000</v>
+      </c>
+      <c r="J34" s="5">
+        <v>23000</v>
+      </c>
+      <c r="K34" s="5">
+        <v>10000</v>
+      </c>
+      <c r="L34" s="5">
+        <v>23000</v>
+      </c>
+      <c r="M34" s="5">
+        <v>10000</v>
+      </c>
+      <c r="N34" s="5">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="20"/>
+      <c r="B35" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="43">
+      <c r="C35" s="34">
         <f>SUM(C24:C34)</f>
         <v>3145000</v>
       </c>
-      <c r="D35" s="43">
+      <c r="D35" s="34">
         <f>SUM(D24:D34)</f>
         <v>6728000</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="15.75">
-      <c r="A36" s="10"/>
-      <c r="B36" s="26" t="s">
+      <c r="E35" s="34">
+        <f>SUM(E24:E34)</f>
+        <v>3145000</v>
+      </c>
+      <c r="F35" s="34">
+        <f>SUM(F24:F34)</f>
+        <v>6728000</v>
+      </c>
+      <c r="G35" s="34">
+        <f>SUM(G24:G34)</f>
+        <v>3145000</v>
+      </c>
+      <c r="H35" s="34">
+        <f>SUM(H24:H34)</f>
+        <v>6728000</v>
+      </c>
+      <c r="I35" s="34">
+        <f>SUM(I24:I34)</f>
+        <v>3145000</v>
+      </c>
+      <c r="J35" s="34">
+        <f>SUM(J24:J34)</f>
+        <v>6728000</v>
+      </c>
+      <c r="K35" s="34">
+        <f>SUM(K24:K34)</f>
+        <v>3145000</v>
+      </c>
+      <c r="L35" s="34">
+        <f>SUM(L24:L34)</f>
+        <v>6728000</v>
+      </c>
+      <c r="M35" s="34">
+        <f>SUM(M24:M34)</f>
+        <v>3145000</v>
+      </c>
+      <c r="N35" s="34">
+        <f>SUM(N24:N34)</f>
+        <v>6728000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="5">
         <v>200000</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="5">
         <v>435000</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="15.75">
-      <c r="A37" s="10"/>
-      <c r="B37" s="26" t="s">
+      <c r="E36" s="5">
+        <v>200000</v>
+      </c>
+      <c r="F36" s="5">
+        <v>435000</v>
+      </c>
+      <c r="G36" s="5">
+        <v>200000</v>
+      </c>
+      <c r="H36" s="5">
+        <v>435000</v>
+      </c>
+      <c r="I36" s="5">
+        <v>200000</v>
+      </c>
+      <c r="J36" s="5">
+        <v>435000</v>
+      </c>
+      <c r="K36" s="5">
+        <v>200000</v>
+      </c>
+      <c r="L36" s="5">
+        <v>435000</v>
+      </c>
+      <c r="M36" s="5">
+        <v>200000</v>
+      </c>
+      <c r="N36" s="5">
+        <v>435000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="8">
-        <v>0</v>
-      </c>
-      <c r="D37" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="15.75">
-      <c r="A38" s="10"/>
-      <c r="B38" s="26" t="s">
+      <c r="C37" s="5">
+        <v>0</v>
+      </c>
+      <c r="D37" s="5">
+        <v>0</v>
+      </c>
+      <c r="E37" s="5">
+        <v>0</v>
+      </c>
+      <c r="F37" s="5">
+        <v>0</v>
+      </c>
+      <c r="G37" s="5">
+        <v>0</v>
+      </c>
+      <c r="H37" s="5">
+        <v>0</v>
+      </c>
+      <c r="I37" s="5">
+        <v>0</v>
+      </c>
+      <c r="J37" s="5">
+        <v>0</v>
+      </c>
+      <c r="K37" s="5">
+        <v>0</v>
+      </c>
+      <c r="L37" s="5">
+        <v>0</v>
+      </c>
+      <c r="M37" s="5">
+        <v>0</v>
+      </c>
+      <c r="N37" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="5">
         <v>345000</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="5">
         <v>650000</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="15.75">
-      <c r="A39" s="10"/>
-      <c r="B39" s="26" t="s">
+      <c r="E38" s="5">
+        <v>345000</v>
+      </c>
+      <c r="F38" s="5">
+        <v>650000</v>
+      </c>
+      <c r="G38" s="5">
+        <v>345000</v>
+      </c>
+      <c r="H38" s="5">
+        <v>650000</v>
+      </c>
+      <c r="I38" s="5">
+        <v>345000</v>
+      </c>
+      <c r="J38" s="5">
+        <v>650000</v>
+      </c>
+      <c r="K38" s="5">
+        <v>345000</v>
+      </c>
+      <c r="L38" s="5">
+        <v>650000</v>
+      </c>
+      <c r="M38" s="5">
+        <v>345000</v>
+      </c>
+      <c r="N38" s="5">
+        <v>650000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+      <c r="B39" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="5">
         <v>185000</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="5">
         <v>300000</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="15.75">
-      <c r="A40" s="10"/>
-      <c r="B40" s="26" t="s">
+      <c r="E39" s="5">
+        <v>185000</v>
+      </c>
+      <c r="F39" s="5">
+        <v>300000</v>
+      </c>
+      <c r="G39" s="5">
+        <v>185000</v>
+      </c>
+      <c r="H39" s="5">
+        <v>300000</v>
+      </c>
+      <c r="I39" s="5">
+        <v>185000</v>
+      </c>
+      <c r="J39" s="5">
+        <v>300000</v>
+      </c>
+      <c r="K39" s="5">
+        <v>185000</v>
+      </c>
+      <c r="L39" s="5">
+        <v>300000</v>
+      </c>
+      <c r="M39" s="5">
+        <v>185000</v>
+      </c>
+      <c r="N39" s="5">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+      <c r="B40" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40" s="5">
         <v>46000</v>
       </c>
-      <c r="D40" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="29"/>
-      <c r="B41" s="6" t="s">
+      <c r="D40" s="5">
+        <v>0</v>
+      </c>
+      <c r="E40" s="5">
+        <v>46000</v>
+      </c>
+      <c r="F40" s="5">
+        <v>0</v>
+      </c>
+      <c r="G40" s="5">
+        <v>46000</v>
+      </c>
+      <c r="H40" s="5">
+        <v>0</v>
+      </c>
+      <c r="I40" s="5">
+        <v>46000</v>
+      </c>
+      <c r="J40" s="5">
+        <v>0</v>
+      </c>
+      <c r="K40" s="5">
+        <v>46000</v>
+      </c>
+      <c r="L40" s="5">
+        <v>0</v>
+      </c>
+      <c r="M40" s="5">
+        <v>46000</v>
+      </c>
+      <c r="N40" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="20"/>
+      <c r="B41" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="43">
+      <c r="C41" s="34">
         <f>SUM(C36:C40)</f>
         <v>776000</v>
       </c>
-      <c r="D41" s="43">
+      <c r="D41" s="34">
         <f>SUM(D36:D40)</f>
         <v>1385000</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="29"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="44">
+      <c r="E41" s="34">
+        <f>SUM(E36:E40)</f>
+        <v>776000</v>
+      </c>
+      <c r="F41" s="34">
+        <f>SUM(F36:F40)</f>
+        <v>1385000</v>
+      </c>
+      <c r="G41" s="34">
+        <f>SUM(G36:G40)</f>
+        <v>776000</v>
+      </c>
+      <c r="H41" s="34">
+        <f>SUM(H36:H40)</f>
+        <v>1385000</v>
+      </c>
+      <c r="I41" s="34">
+        <f>SUM(I36:I40)</f>
+        <v>776000</v>
+      </c>
+      <c r="J41" s="34">
+        <f>SUM(J36:J40)</f>
+        <v>1385000</v>
+      </c>
+      <c r="K41" s="34">
+        <f>SUM(K36:K40)</f>
+        <v>776000</v>
+      </c>
+      <c r="L41" s="34">
+        <f>SUM(L36:L40)</f>
+        <v>1385000</v>
+      </c>
+      <c r="M41" s="34">
+        <f>SUM(M36:M40)</f>
+        <v>776000</v>
+      </c>
+      <c r="N41" s="34">
+        <f>SUM(N36:N40)</f>
+        <v>1385000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="20"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="35">
         <f>SUM(C41+C35+C23+C11)</f>
         <v>97128544</v>
       </c>
-      <c r="D42" s="44">
+      <c r="D42" s="35">
         <f>SUM(D41+D35+D23+D11)</f>
         <v>210448000</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="15.75">
-      <c r="A43" s="10"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="12">
+      <c r="E42" s="35">
+        <f>SUM(E41+E35+E23+E11)</f>
+        <v>97128544</v>
+      </c>
+      <c r="F42" s="35">
+        <f>SUM(F41+F35+F23+F11)</f>
+        <v>210448000</v>
+      </c>
+      <c r="G42" s="35">
+        <f>SUM(G41+G35+G23+G11)</f>
+        <v>97128544</v>
+      </c>
+      <c r="H42" s="35">
+        <f>SUM(H41+H35+H23+H11)</f>
+        <v>210448000</v>
+      </c>
+      <c r="I42" s="35">
+        <f>SUM(I41+I35+I23+I11)</f>
+        <v>97128544</v>
+      </c>
+      <c r="J42" s="35">
+        <f>SUM(J41+J35+J23+J11)</f>
+        <v>210448000</v>
+      </c>
+      <c r="K42" s="35">
+        <f>SUM(K41+K35+K23+K11)</f>
+        <v>97128544</v>
+      </c>
+      <c r="L42" s="35">
+        <f>SUM(L41+L35+L23+L11)</f>
+        <v>210448000</v>
+      </c>
+      <c r="M42" s="35">
+        <f>SUM(M41+M35+M23+M11)</f>
+        <v>97128544</v>
+      </c>
+      <c r="N42" s="35">
+        <f>SUM(N41+N35+N23+N11)</f>
+        <v>210448000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="7">
         <f>C42</f>
         <v>97128544</v>
       </c>
-      <c r="D43" s="12">
+      <c r="D43" s="7">
         <f>D42</f>
         <v>210448000</v>
       </c>
-      <c r="E43" s="9"/>
-    </row>
-    <row r="44" spans="1:5" ht="15.75">
-      <c r="A44" s="29"/>
-      <c r="B44" s="32" t="s">
+      <c r="E43" s="7">
+        <f>E42</f>
+        <v>97128544</v>
+      </c>
+      <c r="F43" s="7">
+        <f>F42</f>
+        <v>210448000</v>
+      </c>
+      <c r="G43" s="7">
+        <f>G42</f>
+        <v>97128544</v>
+      </c>
+      <c r="H43" s="7">
+        <f>H42</f>
+        <v>210448000</v>
+      </c>
+      <c r="I43" s="7">
+        <f>I42</f>
+        <v>97128544</v>
+      </c>
+      <c r="J43" s="7">
+        <f>J42</f>
+        <v>210448000</v>
+      </c>
+      <c r="K43" s="7">
+        <f>K42</f>
+        <v>97128544</v>
+      </c>
+      <c r="L43" s="7">
+        <f>L42</f>
+        <v>210448000</v>
+      </c>
+      <c r="M43" s="7">
+        <f>M42</f>
+        <v>97128544</v>
+      </c>
+      <c r="N43" s="7">
+        <f>N42</f>
+        <v>210448000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="20"/>
+      <c r="B44" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43"/>
-    </row>
-    <row r="45" spans="1:5" ht="15.75">
-      <c r="A45" s="10"/>
-      <c r="B45" s="26" t="s">
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="34"/>
+      <c r="K44" s="34"/>
+      <c r="L44" s="34"/>
+      <c r="M44" s="34"/>
+      <c r="N44" s="34"/>
+    </row>
+    <row r="45" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="6"/>
+      <c r="B45" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45" s="5">
         <v>50000</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D45" s="5">
         <v>123000</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="15.75">
-      <c r="A46" s="10"/>
-      <c r="B46" s="26" t="s">
+      <c r="E45" s="5">
+        <v>50000</v>
+      </c>
+      <c r="F45" s="5">
+        <v>123000</v>
+      </c>
+      <c r="G45" s="5">
+        <v>50000</v>
+      </c>
+      <c r="H45" s="5">
+        <v>123000</v>
+      </c>
+      <c r="I45" s="5">
+        <v>50000</v>
+      </c>
+      <c r="J45" s="5">
+        <v>123000</v>
+      </c>
+      <c r="K45" s="5">
+        <v>50000</v>
+      </c>
+      <c r="L45" s="5">
+        <v>123000</v>
+      </c>
+      <c r="M45" s="5">
+        <v>50000</v>
+      </c>
+      <c r="N45" s="5">
+        <v>123000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="6"/>
+      <c r="B46" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C46" s="5">
         <v>56000</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D46" s="5">
         <v>125000</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="15.75">
-      <c r="A47" s="10"/>
-      <c r="B47" s="26" t="s">
+      <c r="E46" s="5">
+        <v>56000</v>
+      </c>
+      <c r="F46" s="5">
+        <v>125000</v>
+      </c>
+      <c r="G46" s="5">
+        <v>56000</v>
+      </c>
+      <c r="H46" s="5">
+        <v>125000</v>
+      </c>
+      <c r="I46" s="5">
+        <v>56000</v>
+      </c>
+      <c r="J46" s="5">
+        <v>125000</v>
+      </c>
+      <c r="K46" s="5">
+        <v>56000</v>
+      </c>
+      <c r="L46" s="5">
+        <v>125000</v>
+      </c>
+      <c r="M46" s="5">
+        <v>56000</v>
+      </c>
+      <c r="N46" s="5">
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="6"/>
+      <c r="B47" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C47" s="5">
         <v>62000</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D47" s="5">
         <v>127000</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" ht="15.75">
-      <c r="A48" s="10"/>
-      <c r="B48" s="26" t="s">
+      <c r="E47" s="5">
+        <v>62000</v>
+      </c>
+      <c r="F47" s="5">
+        <v>127000</v>
+      </c>
+      <c r="G47" s="5">
+        <v>62000</v>
+      </c>
+      <c r="H47" s="5">
+        <v>127000</v>
+      </c>
+      <c r="I47" s="5">
+        <v>62000</v>
+      </c>
+      <c r="J47" s="5">
+        <v>127000</v>
+      </c>
+      <c r="K47" s="5">
+        <v>62000</v>
+      </c>
+      <c r="L47" s="5">
+        <v>127000</v>
+      </c>
+      <c r="M47" s="5">
+        <v>62000</v>
+      </c>
+      <c r="N47" s="5">
+        <v>127000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="6"/>
+      <c r="B48" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C48" s="8">
+      <c r="C48" s="5">
         <v>68000</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D48" s="5">
         <v>129000</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" ht="15.75">
-      <c r="A49" s="10"/>
-      <c r="B49" s="26" t="s">
+      <c r="E48" s="5">
+        <v>68000</v>
+      </c>
+      <c r="F48" s="5">
+        <v>129000</v>
+      </c>
+      <c r="G48" s="5">
+        <v>68000</v>
+      </c>
+      <c r="H48" s="5">
+        <v>129000</v>
+      </c>
+      <c r="I48" s="5">
+        <v>68000</v>
+      </c>
+      <c r="J48" s="5">
+        <v>129000</v>
+      </c>
+      <c r="K48" s="5">
+        <v>68000</v>
+      </c>
+      <c r="L48" s="5">
+        <v>129000</v>
+      </c>
+      <c r="M48" s="5">
+        <v>68000</v>
+      </c>
+      <c r="N48" s="5">
+        <v>129000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="6"/>
+      <c r="B49" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C49" s="5">
         <v>74000</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D49" s="5">
         <v>131000</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" ht="15.75">
-      <c r="A50" s="10"/>
-      <c r="B50" s="26" t="s">
+      <c r="E49" s="5">
+        <v>74000</v>
+      </c>
+      <c r="F49" s="5">
+        <v>131000</v>
+      </c>
+      <c r="G49" s="5">
+        <v>74000</v>
+      </c>
+      <c r="H49" s="5">
+        <v>131000</v>
+      </c>
+      <c r="I49" s="5">
+        <v>74000</v>
+      </c>
+      <c r="J49" s="5">
+        <v>131000</v>
+      </c>
+      <c r="K49" s="5">
+        <v>74000</v>
+      </c>
+      <c r="L49" s="5">
+        <v>131000</v>
+      </c>
+      <c r="M49" s="5">
+        <v>74000</v>
+      </c>
+      <c r="N49" s="5">
+        <v>131000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="6"/>
+      <c r="B50" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C50" s="8">
+      <c r="C50" s="5">
         <v>80000</v>
       </c>
-      <c r="D50" s="8">
+      <c r="D50" s="5">
         <v>133000</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="29"/>
-      <c r="B51" s="6" t="s">
+      <c r="E50" s="5">
+        <v>80000</v>
+      </c>
+      <c r="F50" s="5">
+        <v>133000</v>
+      </c>
+      <c r="G50" s="5">
+        <v>80000</v>
+      </c>
+      <c r="H50" s="5">
+        <v>133000</v>
+      </c>
+      <c r="I50" s="5">
+        <v>80000</v>
+      </c>
+      <c r="J50" s="5">
+        <v>133000</v>
+      </c>
+      <c r="K50" s="5">
+        <v>80000</v>
+      </c>
+      <c r="L50" s="5">
+        <v>133000</v>
+      </c>
+      <c r="M50" s="5">
+        <v>80000</v>
+      </c>
+      <c r="N50" s="5">
+        <v>133000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="20"/>
+      <c r="B51" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C51" s="14">
+      <c r="C51" s="9">
         <f>SUM(C45:C50)</f>
         <v>390000</v>
       </c>
-      <c r="D51" s="14">
+      <c r="D51" s="9">
         <f>SUM(D45:D50)</f>
         <v>768000</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" ht="15.75">
-      <c r="A52" s="10"/>
-      <c r="B52" s="26" t="s">
+      <c r="E51" s="9">
+        <f>SUM(E45:E50)</f>
+        <v>390000</v>
+      </c>
+      <c r="F51" s="9">
+        <f>SUM(F45:F50)</f>
+        <v>768000</v>
+      </c>
+      <c r="G51" s="9">
+        <f>SUM(G45:G50)</f>
+        <v>390000</v>
+      </c>
+      <c r="H51" s="9">
+        <f>SUM(H45:H50)</f>
+        <v>768000</v>
+      </c>
+      <c r="I51" s="9">
+        <f>SUM(I45:I50)</f>
+        <v>390000</v>
+      </c>
+      <c r="J51" s="9">
+        <f>SUM(J45:J50)</f>
+        <v>768000</v>
+      </c>
+      <c r="K51" s="9">
+        <f>SUM(K45:K50)</f>
+        <v>390000</v>
+      </c>
+      <c r="L51" s="9">
+        <f>SUM(L45:L50)</f>
+        <v>768000</v>
+      </c>
+      <c r="M51" s="9">
+        <f>SUM(M45:M50)</f>
+        <v>390000</v>
+      </c>
+      <c r="N51" s="9">
+        <f>SUM(N45:N50)</f>
+        <v>768000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="6"/>
+      <c r="B52" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C52" s="8">
+      <c r="C52" s="5">
         <v>15000</v>
       </c>
-      <c r="D52" s="8">
+      <c r="D52" s="5">
         <v>30000</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" ht="15.75">
-      <c r="A53" s="10"/>
-      <c r="B53" s="26" t="s">
+      <c r="E52" s="5">
+        <v>15000</v>
+      </c>
+      <c r="F52" s="5">
+        <v>30000</v>
+      </c>
+      <c r="G52" s="5">
+        <v>15000</v>
+      </c>
+      <c r="H52" s="5">
+        <v>30000</v>
+      </c>
+      <c r="I52" s="5">
+        <v>15000</v>
+      </c>
+      <c r="J52" s="5">
+        <v>30000</v>
+      </c>
+      <c r="K52" s="5">
+        <v>15000</v>
+      </c>
+      <c r="L52" s="5">
+        <v>30000</v>
+      </c>
+      <c r="M52" s="5">
+        <v>15000</v>
+      </c>
+      <c r="N52" s="5">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="6"/>
+      <c r="B53" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C53" s="8">
+      <c r="C53" s="5">
         <v>12550</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D53" s="5">
         <v>26000</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" ht="16.5">
-      <c r="A54" s="15"/>
-      <c r="B54" s="6" t="s">
+      <c r="E53" s="5">
+        <v>12550</v>
+      </c>
+      <c r="F53" s="5">
+        <v>26000</v>
+      </c>
+      <c r="G53" s="5">
+        <v>12550</v>
+      </c>
+      <c r="H53" s="5">
+        <v>26000</v>
+      </c>
+      <c r="I53" s="5">
+        <v>12550</v>
+      </c>
+      <c r="J53" s="5">
+        <v>26000</v>
+      </c>
+      <c r="K53" s="5">
+        <v>12550</v>
+      </c>
+      <c r="L53" s="5">
+        <v>26000</v>
+      </c>
+      <c r="M53" s="5">
+        <v>12550</v>
+      </c>
+      <c r="N53" s="5">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="10"/>
+      <c r="B54" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C54" s="43">
+      <c r="C54" s="34">
         <f>SUM(C52:C53)</f>
         <v>27550</v>
       </c>
-      <c r="D54" s="43">
+      <c r="D54" s="34">
         <f>SUM(D52:D53)</f>
         <v>56000</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" ht="16.5">
-      <c r="A55" s="15"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="44">
+      <c r="E54" s="34">
+        <f>SUM(E52:E53)</f>
+        <v>27550</v>
+      </c>
+      <c r="F54" s="34">
+        <f>SUM(F52:F53)</f>
+        <v>56000</v>
+      </c>
+      <c r="G54" s="34">
+        <f>SUM(G52:G53)</f>
+        <v>27550</v>
+      </c>
+      <c r="H54" s="34">
+        <f>SUM(H52:H53)</f>
+        <v>56000</v>
+      </c>
+      <c r="I54" s="34">
+        <f>SUM(I52:I53)</f>
+        <v>27550</v>
+      </c>
+      <c r="J54" s="34">
+        <f>SUM(J52:J53)</f>
+        <v>56000</v>
+      </c>
+      <c r="K54" s="34">
+        <f>SUM(K52:K53)</f>
+        <v>27550</v>
+      </c>
+      <c r="L54" s="34">
+        <f>SUM(L52:L53)</f>
+        <v>56000</v>
+      </c>
+      <c r="M54" s="34">
+        <f>SUM(M52:M53)</f>
+        <v>27550</v>
+      </c>
+      <c r="N54" s="34">
+        <f>SUM(N52:N53)</f>
+        <v>56000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="10"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="35">
         <f>SUM(C51+C54)</f>
         <v>417550</v>
       </c>
-      <c r="D55" s="44">
+      <c r="D55" s="35">
         <f>SUM(D51+D54)</f>
         <v>824000</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" ht="16.5">
-      <c r="A56" s="15"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="44"/>
-      <c r="D56" s="44"/>
-    </row>
-    <row r="57" spans="1:4" ht="16.5">
-      <c r="A57" s="34"/>
-      <c r="B57" s="13" t="s">
+      <c r="E55" s="35">
+        <f>SUM(E51+E54)</f>
+        <v>417550</v>
+      </c>
+      <c r="F55" s="35">
+        <f>SUM(F51+F54)</f>
+        <v>824000</v>
+      </c>
+      <c r="G55" s="35">
+        <f>SUM(G51+G54)</f>
+        <v>417550</v>
+      </c>
+      <c r="H55" s="35">
+        <f>SUM(H51+H54)</f>
+        <v>824000</v>
+      </c>
+      <c r="I55" s="35">
+        <f>SUM(I51+I54)</f>
+        <v>417550</v>
+      </c>
+      <c r="J55" s="35">
+        <f>SUM(J51+J54)</f>
+        <v>824000</v>
+      </c>
+      <c r="K55" s="35">
+        <f>SUM(K51+K54)</f>
+        <v>417550</v>
+      </c>
+      <c r="L55" s="35">
+        <f>SUM(L51+L54)</f>
+        <v>824000</v>
+      </c>
+      <c r="M55" s="35">
+        <f>SUM(M51+M54)</f>
+        <v>417550</v>
+      </c>
+      <c r="N55" s="35">
+        <f>SUM(N51+N54)</f>
+        <v>824000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="10"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="35"/>
+      <c r="J56" s="35"/>
+      <c r="K56" s="35"/>
+      <c r="L56" s="35"/>
+      <c r="M56" s="35"/>
+      <c r="N56" s="35"/>
+    </row>
+    <row r="57" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A57" s="25"/>
+      <c r="B57" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C57" s="44">
+      <c r="C57" s="35">
         <f>SUM(C42+C55)</f>
         <v>97546094</v>
       </c>
-      <c r="D57" s="44">
+      <c r="D57" s="35">
         <f>SUM(D42+D55)</f>
         <v>211272000</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" ht="16.5">
-      <c r="A58" s="34"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="44"/>
-      <c r="D58" s="44"/>
-    </row>
-    <row r="59" spans="1:4" ht="15.75">
-      <c r="A59" s="33"/>
-      <c r="B59" s="31" t="s">
+      <c r="E57" s="35">
+        <f>SUM(E42+E55)</f>
+        <v>97546094</v>
+      </c>
+      <c r="F57" s="35">
+        <f>SUM(F42+F55)</f>
+        <v>211272000</v>
+      </c>
+      <c r="G57" s="35">
+        <f>SUM(G42+G55)</f>
+        <v>97546094</v>
+      </c>
+      <c r="H57" s="35">
+        <f>SUM(H42+H55)</f>
+        <v>211272000</v>
+      </c>
+      <c r="I57" s="35">
+        <f>SUM(I42+I55)</f>
+        <v>97546094</v>
+      </c>
+      <c r="J57" s="35">
+        <f>SUM(J42+J55)</f>
+        <v>211272000</v>
+      </c>
+      <c r="K57" s="35">
+        <f>SUM(K42+K55)</f>
+        <v>97546094</v>
+      </c>
+      <c r="L57" s="35">
+        <f>SUM(L42+L55)</f>
+        <v>211272000</v>
+      </c>
+      <c r="M57" s="35">
+        <f>SUM(M42+M55)</f>
+        <v>97546094</v>
+      </c>
+      <c r="N57" s="35">
+        <f>SUM(N42+N55)</f>
+        <v>211272000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A58" s="25"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="35"/>
+      <c r="E58" s="35"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="35"/>
+      <c r="I58" s="35"/>
+      <c r="J58" s="35"/>
+      <c r="K58" s="35"/>
+      <c r="L58" s="35"/>
+      <c r="M58" s="35"/>
+      <c r="N58" s="35"/>
+    </row>
+    <row r="59" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="24"/>
+      <c r="B59" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C59" s="44"/>
-      <c r="D59" s="44"/>
-    </row>
-    <row r="60" spans="1:4" ht="16.5">
-      <c r="A60" s="34"/>
-      <c r="B60" s="51" t="s">
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="35"/>
+      <c r="G59" s="35"/>
+      <c r="H59" s="35"/>
+      <c r="I59" s="35"/>
+      <c r="J59" s="35"/>
+      <c r="K59" s="35"/>
+      <c r="L59" s="35"/>
+      <c r="M59" s="35"/>
+      <c r="N59" s="35"/>
+    </row>
+    <row r="60" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A60" s="25"/>
+      <c r="B60" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="C60" s="44">
+      <c r="C60" s="35">
         <v>100000</v>
       </c>
-      <c r="D60" s="44">
+      <c r="D60" s="35">
         <v>200000</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" ht="16.5">
-      <c r="A61" s="34"/>
-      <c r="B61" s="51" t="s">
+      <c r="E60" s="35">
+        <v>100000</v>
+      </c>
+      <c r="F60" s="35">
+        <v>200000</v>
+      </c>
+      <c r="G60" s="35">
+        <v>100000</v>
+      </c>
+      <c r="H60" s="35">
+        <v>200000</v>
+      </c>
+      <c r="I60" s="35">
+        <v>100000</v>
+      </c>
+      <c r="J60" s="35">
+        <v>200000</v>
+      </c>
+      <c r="K60" s="35">
+        <v>100000</v>
+      </c>
+      <c r="L60" s="35">
+        <v>200000</v>
+      </c>
+      <c r="M60" s="35">
+        <v>100000</v>
+      </c>
+      <c r="N60" s="35">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A61" s="25"/>
+      <c r="B61" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="C61" s="44">
+      <c r="C61" s="35">
         <v>20000</v>
       </c>
-      <c r="D61" s="44">
+      <c r="D61" s="35">
         <v>34000</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" ht="16.5">
-      <c r="A62" s="34"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="44"/>
-      <c r="D62" s="44"/>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="11"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="35"/>
-      <c r="D63" s="30"/>
-    </row>
-    <row r="64" spans="1:4" ht="30">
-      <c r="A64" s="15"/>
-      <c r="B64" s="17" t="s">
+      <c r="E61" s="35">
+        <v>20000</v>
+      </c>
+      <c r="F61" s="35">
+        <v>34000</v>
+      </c>
+      <c r="G61" s="35">
+        <v>20000</v>
+      </c>
+      <c r="H61" s="35">
+        <v>34000</v>
+      </c>
+      <c r="I61" s="35">
+        <v>20000</v>
+      </c>
+      <c r="J61" s="35">
+        <v>34000</v>
+      </c>
+      <c r="K61" s="35">
+        <v>20000</v>
+      </c>
+      <c r="L61" s="35">
+        <v>34000</v>
+      </c>
+      <c r="M61" s="35">
+        <v>20000</v>
+      </c>
+      <c r="N61" s="35">
+        <v>34000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A62" s="25"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="35"/>
+      <c r="F62" s="35"/>
+      <c r="G62" s="35"/>
+      <c r="H62" s="35"/>
+      <c r="I62" s="35"/>
+      <c r="J62" s="35"/>
+      <c r="K62" s="35"/>
+      <c r="L62" s="35"/>
+      <c r="M62" s="35"/>
+      <c r="N62" s="35"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" s="53"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="26"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="26"/>
+      <c r="J63" s="21"/>
+      <c r="K63" s="26"/>
+      <c r="L63" s="21"/>
+      <c r="M63" s="26"/>
+      <c r="N63" s="21"/>
+    </row>
+    <row r="64" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A64" s="10"/>
+      <c r="B64" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D64" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" ht="15.75">
-      <c r="A65" s="36"/>
-      <c r="B65" s="36"/>
-      <c r="C65" s="25"/>
-      <c r="D65" s="25"/>
-    </row>
-    <row r="66" spans="1:4" ht="15.75">
-      <c r="A66" s="36"/>
-      <c r="B66" s="36"/>
-      <c r="C66" s="25"/>
-      <c r="D66" s="25"/>
-    </row>
-    <row r="67" spans="1:4" ht="15.75">
-      <c r="A67" s="36"/>
-      <c r="B67" s="36"/>
-      <c r="C67" s="25"/>
-      <c r="D67" s="25"/>
-    </row>
-    <row r="68" spans="1:4" ht="15.75">
-      <c r="A68" s="16" t="s">
+      <c r="E64" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N64" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="27"/>
+      <c r="B65" s="27"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="16"/>
+      <c r="I65" s="16"/>
+      <c r="J65" s="16"/>
+      <c r="K65" s="16"/>
+      <c r="L65" s="16"/>
+      <c r="M65" s="16"/>
+      <c r="N65" s="16"/>
+    </row>
+    <row r="66" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="27"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="16"/>
+      <c r="I66" s="16"/>
+      <c r="J66" s="16"/>
+      <c r="K66" s="16"/>
+      <c r="L66" s="16"/>
+      <c r="M66" s="16"/>
+      <c r="N66" s="16"/>
+    </row>
+    <row r="67" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="27"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16"/>
+      <c r="H67" s="16"/>
+      <c r="I67" s="16"/>
+      <c r="J67" s="16"/>
+      <c r="K67" s="16"/>
+      <c r="L67" s="16"/>
+      <c r="M67" s="16"/>
+      <c r="N67" s="16"/>
+    </row>
+    <row r="68" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B68" s="16" t="s">
+      <c r="B68" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C68" s="33"/>
-      <c r="D68" s="36"/>
-    </row>
-    <row r="69" spans="1:4" ht="16.5">
-      <c r="A69" s="15"/>
-      <c r="B69" s="27" t="s">
+      <c r="C68" s="24"/>
+      <c r="D68" s="27"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="44"/>
+      <c r="G68" s="24"/>
+      <c r="H68" s="44"/>
+      <c r="I68" s="24"/>
+      <c r="J68" s="44"/>
+      <c r="K68" s="24"/>
+      <c r="L68" s="44"/>
+      <c r="M68" s="24"/>
+      <c r="N68" s="44"/>
+    </row>
+    <row r="69" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A69" s="10"/>
+      <c r="B69" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C69" s="43">
+      <c r="C69" s="34">
         <v>22000</v>
       </c>
-      <c r="D69" s="43">
+      <c r="D69" s="34">
         <v>46000</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" ht="16.5">
-      <c r="A70" s="15"/>
-      <c r="B70" s="27" t="s">
+      <c r="E69" s="34">
+        <v>22000</v>
+      </c>
+      <c r="F69" s="34">
+        <v>46000</v>
+      </c>
+      <c r="G69" s="34">
+        <v>22000</v>
+      </c>
+      <c r="H69" s="34">
+        <v>46000</v>
+      </c>
+      <c r="I69" s="34">
+        <v>22000</v>
+      </c>
+      <c r="J69" s="34">
+        <v>46000</v>
+      </c>
+      <c r="K69" s="34">
+        <v>22000</v>
+      </c>
+      <c r="L69" s="34">
+        <v>46000</v>
+      </c>
+      <c r="M69" s="34">
+        <v>22000</v>
+      </c>
+      <c r="N69" s="34">
+        <v>46000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A70" s="10"/>
+      <c r="B70" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C70" s="43">
-        <v>0</v>
-      </c>
-      <c r="D70" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="16.5">
-      <c r="A71" s="15"/>
-      <c r="B71" s="27" t="s">
+      <c r="C70" s="34">
+        <v>0</v>
+      </c>
+      <c r="D70" s="34">
+        <v>0</v>
+      </c>
+      <c r="E70" s="34">
+        <v>0</v>
+      </c>
+      <c r="F70" s="34">
+        <v>0</v>
+      </c>
+      <c r="G70" s="34">
+        <v>0</v>
+      </c>
+      <c r="H70" s="34">
+        <v>0</v>
+      </c>
+      <c r="I70" s="34">
+        <v>0</v>
+      </c>
+      <c r="J70" s="34">
+        <v>0</v>
+      </c>
+      <c r="K70" s="34">
+        <v>0</v>
+      </c>
+      <c r="L70" s="34">
+        <v>0</v>
+      </c>
+      <c r="M70" s="34">
+        <v>0</v>
+      </c>
+      <c r="N70" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="10"/>
+      <c r="B71" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C71" s="43">
-        <v>0</v>
-      </c>
-      <c r="D71" s="21" t="s">
+      <c r="C71" s="34">
+        <v>0</v>
+      </c>
+      <c r="D71" s="14" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" ht="15.75">
-      <c r="A72" s="36"/>
-      <c r="B72" s="36"/>
-      <c r="C72" s="25"/>
-      <c r="D72" s="25"/>
-    </row>
-    <row r="73" spans="1:4" ht="15.75">
-      <c r="A73" s="36"/>
-      <c r="B73" s="36"/>
-      <c r="C73" s="25"/>
-      <c r="D73" s="25"/>
-    </row>
-    <row r="74" spans="1:4" ht="15.75">
-      <c r="A74" s="10"/>
-      <c r="B74" s="26" t="s">
+      <c r="E71" s="34">
+        <v>0</v>
+      </c>
+      <c r="F71" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="G71" s="34">
+        <v>0</v>
+      </c>
+      <c r="H71" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="I71" s="34">
+        <v>0</v>
+      </c>
+      <c r="J71" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="K71" s="34">
+        <v>0</v>
+      </c>
+      <c r="L71" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="M71" s="34">
+        <v>0</v>
+      </c>
+      <c r="N71" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="27"/>
+      <c r="B72" s="27"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="16"/>
+      <c r="J72" s="16"/>
+      <c r="K72" s="16"/>
+      <c r="L72" s="16"/>
+      <c r="M72" s="16"/>
+      <c r="N72" s="16"/>
+    </row>
+    <row r="73" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="27"/>
+      <c r="B73" s="27"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="16"/>
+      <c r="J73" s="16"/>
+      <c r="K73" s="16"/>
+      <c r="L73" s="16"/>
+      <c r="M73" s="16"/>
+      <c r="N73" s="16"/>
+    </row>
+    <row r="74" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="6"/>
+      <c r="B74" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C74" s="8">
+      <c r="C74" s="5">
         <v>200</v>
       </c>
-      <c r="D74" s="8">
+      <c r="D74" s="5">
         <v>500</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" ht="15.75">
-      <c r="A75" s="10"/>
-      <c r="B75" s="26" t="s">
+      <c r="E74" s="5">
+        <v>200</v>
+      </c>
+      <c r="F74" s="5">
+        <v>500</v>
+      </c>
+      <c r="G74" s="5">
+        <v>200</v>
+      </c>
+      <c r="H74" s="5">
+        <v>500</v>
+      </c>
+      <c r="I74" s="5">
+        <v>200</v>
+      </c>
+      <c r="J74" s="5">
+        <v>500</v>
+      </c>
+      <c r="K74" s="5">
+        <v>200</v>
+      </c>
+      <c r="L74" s="5">
+        <v>500</v>
+      </c>
+      <c r="M74" s="5">
+        <v>200</v>
+      </c>
+      <c r="N74" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="6"/>
+      <c r="B75" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C75" s="8">
+      <c r="C75" s="5">
         <v>100</v>
       </c>
-      <c r="D75" s="8">
+      <c r="D75" s="5">
         <v>300</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" ht="15.75">
-      <c r="A76" s="36"/>
-      <c r="B76" s="36"/>
-      <c r="C76" s="25"/>
-      <c r="D76" s="25"/>
-    </row>
-    <row r="77" spans="1:4" ht="15.75">
-      <c r="A77" s="36"/>
-      <c r="B77" s="36"/>
-      <c r="C77" s="25"/>
-      <c r="D77" s="25"/>
-    </row>
-    <row r="78" spans="1:4" ht="16.5">
-      <c r="A78" s="15"/>
-      <c r="B78" s="27" t="s">
+      <c r="E75" s="5">
+        <v>100</v>
+      </c>
+      <c r="F75" s="5">
+        <v>300</v>
+      </c>
+      <c r="G75" s="5">
+        <v>100</v>
+      </c>
+      <c r="H75" s="5">
+        <v>300</v>
+      </c>
+      <c r="I75" s="5">
+        <v>100</v>
+      </c>
+      <c r="J75" s="5">
+        <v>300</v>
+      </c>
+      <c r="K75" s="5">
+        <v>100</v>
+      </c>
+      <c r="L75" s="5">
+        <v>300</v>
+      </c>
+      <c r="M75" s="5">
+        <v>100</v>
+      </c>
+      <c r="N75" s="5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="27"/>
+      <c r="B76" s="27"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="16"/>
+      <c r="I76" s="16"/>
+      <c r="J76" s="16"/>
+      <c r="K76" s="16"/>
+      <c r="L76" s="16"/>
+      <c r="M76" s="16"/>
+      <c r="N76" s="16"/>
+    </row>
+    <row r="77" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="27"/>
+      <c r="B77" s="27"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="16"/>
+      <c r="I77" s="16"/>
+      <c r="J77" s="16"/>
+      <c r="K77" s="16"/>
+      <c r="L77" s="16"/>
+      <c r="M77" s="16"/>
+      <c r="N77" s="16"/>
+    </row>
+    <row r="78" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A78" s="10"/>
+      <c r="B78" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C78" s="43">
-        <v>0</v>
-      </c>
-      <c r="D78" s="43">
+      <c r="C78" s="34">
+        <v>0</v>
+      </c>
+      <c r="D78" s="34">
         <v>36676.629999999997</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" ht="16.5">
-      <c r="A79" s="15"/>
-      <c r="B79" s="27" t="s">
+      <c r="E78" s="34">
+        <v>0</v>
+      </c>
+      <c r="F78" s="34">
+        <v>36676.629999999997</v>
+      </c>
+      <c r="G78" s="34">
+        <v>0</v>
+      </c>
+      <c r="H78" s="34">
+        <v>36676.629999999997</v>
+      </c>
+      <c r="I78" s="34">
+        <v>0</v>
+      </c>
+      <c r="J78" s="34">
+        <v>36676.629999999997</v>
+      </c>
+      <c r="K78" s="34">
+        <v>0</v>
+      </c>
+      <c r="L78" s="34">
+        <v>36676.629999999997</v>
+      </c>
+      <c r="M78" s="34">
+        <v>0</v>
+      </c>
+      <c r="N78" s="34">
+        <v>36676.629999999997</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A79" s="10"/>
+      <c r="B79" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C79" s="43">
-        <v>0</v>
-      </c>
-      <c r="D79" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="15.75">
-      <c r="A80" s="36"/>
-      <c r="B80" s="26" t="s">
+      <c r="C79" s="34">
+        <v>0</v>
+      </c>
+      <c r="D79" s="34">
+        <v>0</v>
+      </c>
+      <c r="E79" s="34">
+        <v>0</v>
+      </c>
+      <c r="F79" s="34">
+        <v>0</v>
+      </c>
+      <c r="G79" s="34">
+        <v>0</v>
+      </c>
+      <c r="H79" s="34">
+        <v>0</v>
+      </c>
+      <c r="I79" s="34">
+        <v>0</v>
+      </c>
+      <c r="J79" s="34">
+        <v>0</v>
+      </c>
+      <c r="K79" s="34">
+        <v>0</v>
+      </c>
+      <c r="L79" s="34">
+        <v>0</v>
+      </c>
+      <c r="M79" s="34">
+        <v>0</v>
+      </c>
+      <c r="N79" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="27"/>
+      <c r="B80" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8" t="s">
+      <c r="C80" s="5"/>
+      <c r="D80" s="5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" ht="15.75">
-      <c r="A81" s="19"/>
-      <c r="B81" s="26" t="s">
+      <c r="E80" s="5"/>
+      <c r="F80" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K80" s="5"/>
+      <c r="L80" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M80" s="5"/>
+      <c r="N80" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="13"/>
+      <c r="B81" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8" t="s">
+      <c r="C81" s="5"/>
+      <c r="D81" s="5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" ht="16.5">
-      <c r="A82" s="15"/>
-      <c r="B82" s="51" t="s">
+      <c r="E81" s="5"/>
+      <c r="F81" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I81" s="5"/>
+      <c r="J81" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K81" s="5"/>
+      <c r="L81" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M81" s="5"/>
+      <c r="N81" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A82" s="10"/>
+      <c r="B82" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="C82" s="37">
-        <v>0</v>
-      </c>
-      <c r="D82" s="35" t="s">
+      <c r="C82" s="28">
+        <v>0</v>
+      </c>
+      <c r="D82" s="26" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" ht="16.5">
-      <c r="A83" s="15"/>
-      <c r="B83" s="51" t="s">
+      <c r="E82" s="28">
+        <v>0</v>
+      </c>
+      <c r="F82" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="G82" s="28">
+        <v>0</v>
+      </c>
+      <c r="H82" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="I82" s="28">
+        <v>0</v>
+      </c>
+      <c r="J82" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="K82" s="28">
+        <v>0</v>
+      </c>
+      <c r="L82" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="M82" s="28">
+        <v>0</v>
+      </c>
+      <c r="N82" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A83" s="10"/>
+      <c r="B83" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="C83" s="35">
+      <c r="C83" s="26">
         <v>267000</v>
       </c>
-      <c r="D83" s="35">
+      <c r="D83" s="26">
         <v>300000</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" ht="15.75">
-      <c r="A84" s="36"/>
-      <c r="B84" s="26" t="s">
+      <c r="E83" s="26">
+        <v>267000</v>
+      </c>
+      <c r="F83" s="26">
+        <v>300000</v>
+      </c>
+      <c r="G83" s="26">
+        <v>267000</v>
+      </c>
+      <c r="H83" s="26">
+        <v>300000</v>
+      </c>
+      <c r="I83" s="26">
+        <v>267000</v>
+      </c>
+      <c r="J83" s="26">
+        <v>300000</v>
+      </c>
+      <c r="K83" s="26">
+        <v>267000</v>
+      </c>
+      <c r="L83" s="26">
+        <v>300000</v>
+      </c>
+      <c r="M83" s="26">
+        <v>267000</v>
+      </c>
+      <c r="N83" s="26">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="27"/>
+      <c r="B84" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="C84" s="8">
-        <v>0</v>
-      </c>
-      <c r="D84" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="15.75">
-      <c r="A85" s="36"/>
-      <c r="B85" s="26" t="s">
+      <c r="C84" s="5">
+        <v>0</v>
+      </c>
+      <c r="D84" s="5">
+        <v>0</v>
+      </c>
+      <c r="E84" s="5">
+        <v>0</v>
+      </c>
+      <c r="F84" s="5">
+        <v>0</v>
+      </c>
+      <c r="G84" s="5">
+        <v>0</v>
+      </c>
+      <c r="H84" s="5">
+        <v>0</v>
+      </c>
+      <c r="I84" s="5">
+        <v>0</v>
+      </c>
+      <c r="J84" s="5">
+        <v>0</v>
+      </c>
+      <c r="K84" s="5">
+        <v>0</v>
+      </c>
+      <c r="L84" s="5">
+        <v>0</v>
+      </c>
+      <c r="M84" s="5">
+        <v>0</v>
+      </c>
+      <c r="N84" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="27"/>
+      <c r="B85" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C85" s="8">
-        <v>0</v>
-      </c>
-      <c r="D85" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="15.75">
-      <c r="A86" s="25"/>
-      <c r="B86" s="26" t="s">
+      <c r="C85" s="5">
+        <v>0</v>
+      </c>
+      <c r="D85" s="5">
+        <v>0</v>
+      </c>
+      <c r="E85" s="5">
+        <v>0</v>
+      </c>
+      <c r="F85" s="5">
+        <v>0</v>
+      </c>
+      <c r="G85" s="5">
+        <v>0</v>
+      </c>
+      <c r="H85" s="5">
+        <v>0</v>
+      </c>
+      <c r="I85" s="5">
+        <v>0</v>
+      </c>
+      <c r="J85" s="5">
+        <v>0</v>
+      </c>
+      <c r="K85" s="5">
+        <v>0</v>
+      </c>
+      <c r="L85" s="5">
+        <v>0</v>
+      </c>
+      <c r="M85" s="5">
+        <v>0</v>
+      </c>
+      <c r="N85" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="16"/>
+      <c r="B86" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="C86" s="8">
+      <c r="C86" s="5">
         <v>13000</v>
       </c>
-      <c r="D86" s="8">
+      <c r="D86" s="5">
         <v>258458.9</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" ht="15.75">
-      <c r="A87" s="25"/>
-      <c r="B87" s="26" t="s">
+      <c r="E86" s="5">
+        <v>13000</v>
+      </c>
+      <c r="F86" s="5">
+        <v>258458.9</v>
+      </c>
+      <c r="G86" s="5">
+        <v>13000</v>
+      </c>
+      <c r="H86" s="5">
+        <v>258458.9</v>
+      </c>
+      <c r="I86" s="5">
+        <v>13000</v>
+      </c>
+      <c r="J86" s="5">
+        <v>258458.9</v>
+      </c>
+      <c r="K86" s="5">
+        <v>13000</v>
+      </c>
+      <c r="L86" s="5">
+        <v>258458.9</v>
+      </c>
+      <c r="M86" s="5">
+        <v>13000</v>
+      </c>
+      <c r="N86" s="5">
+        <v>258458.9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="16"/>
+      <c r="B87" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C87" s="8">
+      <c r="C87" s="5">
         <v>22400</v>
       </c>
-      <c r="D87" s="8">
+      <c r="D87" s="5">
         <v>50000</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" ht="78.75" customHeight="1">
-      <c r="A88" s="28"/>
-      <c r="B88" s="26" t="s">
+      <c r="E87" s="5">
+        <v>22400</v>
+      </c>
+      <c r="F87" s="5">
+        <v>50000</v>
+      </c>
+      <c r="G87" s="5">
+        <v>22400</v>
+      </c>
+      <c r="H87" s="5">
+        <v>50000</v>
+      </c>
+      <c r="I87" s="5">
+        <v>22400</v>
+      </c>
+      <c r="J87" s="5">
+        <v>50000</v>
+      </c>
+      <c r="K87" s="5">
+        <v>22400</v>
+      </c>
+      <c r="L87" s="5">
+        <v>50000</v>
+      </c>
+      <c r="M87" s="5">
+        <v>22400</v>
+      </c>
+      <c r="N87" s="5">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="19"/>
+      <c r="B88" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="C88" s="8">
-        <v>0</v>
-      </c>
-      <c r="D88" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="15.75">
-      <c r="A89" s="36"/>
-      <c r="B89" s="26" t="s">
+      <c r="C88" s="5">
+        <v>0</v>
+      </c>
+      <c r="D88" s="5">
+        <v>0</v>
+      </c>
+      <c r="E88" s="5">
+        <v>0</v>
+      </c>
+      <c r="F88" s="5">
+        <v>0</v>
+      </c>
+      <c r="G88" s="5">
+        <v>0</v>
+      </c>
+      <c r="H88" s="5">
+        <v>0</v>
+      </c>
+      <c r="I88" s="5">
+        <v>0</v>
+      </c>
+      <c r="J88" s="5">
+        <v>0</v>
+      </c>
+      <c r="K88" s="5">
+        <v>0</v>
+      </c>
+      <c r="L88" s="5">
+        <v>0</v>
+      </c>
+      <c r="M88" s="5">
+        <v>0</v>
+      </c>
+      <c r="N88" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="27"/>
+      <c r="B89" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C89" s="8">
-        <v>0</v>
-      </c>
-      <c r="D89" s="8"/>
-    </row>
-    <row r="90" spans="1:4" ht="15.75">
-      <c r="A90" s="36"/>
-      <c r="B90" s="26" t="s">
+      <c r="C89" s="5">
+        <v>0</v>
+      </c>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5">
+        <v>0</v>
+      </c>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5">
+        <v>0</v>
+      </c>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5">
+        <v>0</v>
+      </c>
+      <c r="J89" s="5"/>
+      <c r="K89" s="5">
+        <v>0</v>
+      </c>
+      <c r="L89" s="5"/>
+      <c r="M89" s="5">
+        <v>0</v>
+      </c>
+      <c r="N89" s="5"/>
+    </row>
+    <row r="90" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="27"/>
+      <c r="B90" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C90" s="8">
+      <c r="C90" s="5">
         <v>35000</v>
       </c>
-      <c r="D90" s="8">
+      <c r="D90" s="5">
         <v>55000</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" ht="16.5">
-      <c r="A91" s="15"/>
+      <c r="E90" s="5">
+        <v>35000</v>
+      </c>
+      <c r="F90" s="5">
+        <v>55000</v>
+      </c>
+      <c r="G90" s="5">
+        <v>35000</v>
+      </c>
+      <c r="H90" s="5">
+        <v>55000</v>
+      </c>
+      <c r="I90" s="5">
+        <v>35000</v>
+      </c>
+      <c r="J90" s="5">
+        <v>55000</v>
+      </c>
+      <c r="K90" s="5">
+        <v>35000</v>
+      </c>
+      <c r="L90" s="5">
+        <v>55000</v>
+      </c>
+      <c r="M90" s="5">
+        <v>35000</v>
+      </c>
+      <c r="N90" s="5">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A91" s="10"/>
       <c r="B91" s="1"/>
-      <c r="C91" s="37">
+      <c r="C91" s="28">
         <f>SUM(C69+C83)</f>
         <v>289000</v>
       </c>
-      <c r="D91" s="37">
+      <c r="D91" s="28">
         <f>SUM(D69+D83)</f>
+        <v>346000</v>
+      </c>
+      <c r="E91" s="28">
+        <f>SUM(E69+E83)</f>
+        <v>289000</v>
+      </c>
+      <c r="F91" s="28">
+        <f>SUM(F69+F83)</f>
+        <v>346000</v>
+      </c>
+      <c r="G91" s="28">
+        <f>SUM(G69+G83)</f>
+        <v>289000</v>
+      </c>
+      <c r="H91" s="28">
+        <f>SUM(H69+H83)</f>
+        <v>346000</v>
+      </c>
+      <c r="I91" s="28">
+        <f>SUM(I69+I83)</f>
+        <v>289000</v>
+      </c>
+      <c r="J91" s="28">
+        <f>SUM(J69+J83)</f>
+        <v>346000</v>
+      </c>
+      <c r="K91" s="28">
+        <f>SUM(K69+K83)</f>
+        <v>289000</v>
+      </c>
+      <c r="L91" s="28">
+        <f>SUM(L69+L83)</f>
+        <v>346000</v>
+      </c>
+      <c r="M91" s="28">
+        <f>SUM(M69+M83)</f>
+        <v>289000</v>
+      </c>
+      <c r="N91" s="28">
+        <f>SUM(N69+N83)</f>
         <v>346000</v>
       </c>
     </row>
@@ -2456,29 +4875,6 @@
     <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>